--- a/store/clean_data.xlsx
+++ b/store/clean_data.xlsx
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/store/clean_data.xlsx
+++ b/store/clean_data.xlsx
@@ -480,12 +480,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>WEI (Area)</t>
+          <t>WEI_Area</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>WEI (People)</t>
+          <t>WEI_People</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -534,7 +534,7 @@
         <v>19.60369321923704</v>
       </c>
       <c r="I2" t="n">
-        <v>116.7488551885381</v>
+        <v>0.1167488551885381</v>
       </c>
       <c r="J2" t="n">
         <v>47.63146198379381</v>
@@ -579,7 +579,7 @@
         <v>20.33642651014286</v>
       </c>
       <c r="I3" t="n">
-        <v>82.52187129517245</v>
+        <v>0.08252187129517245</v>
       </c>
       <c r="J3" t="n">
         <v>41.14911739379873</v>
@@ -624,7 +624,7 @@
         <v>21.40166892648915</v>
       </c>
       <c r="I4" t="n">
-        <v>72.36413921537529</v>
+        <v>0.07236413921537529</v>
       </c>
       <c r="J4" t="n">
         <v>30.92915590157736</v>
@@ -669,7 +669,7 @@
         <v>19.05998924875976</v>
       </c>
       <c r="I5" t="n">
-        <v>119.1303896463323</v>
+        <v>0.1191303896463323</v>
       </c>
       <c r="J5" t="n">
         <v>50.91751845511068</v>
@@ -714,7 +714,7 @@
         <v>18.90944562904032</v>
       </c>
       <c r="I6" t="n">
-        <v>95.5233644139834</v>
+        <v>0.0955233644139834</v>
       </c>
       <c r="J6" t="n">
         <v>40.82764007473391</v>
@@ -759,7 +759,7 @@
         <v>20.0930673889712</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4063667585571</v>
+        <v>0.1044063667585571</v>
       </c>
       <c r="J7" t="n">
         <v>46.85554020384023</v>
@@ -804,7 +804,7 @@
         <v>19.91487096304447</v>
       </c>
       <c r="I8" t="n">
-        <v>75.75495493478378</v>
+        <v>0.07575495493478379</v>
       </c>
       <c r="J8" t="n">
         <v>30.90667784478984</v>
@@ -849,7 +849,7 @@
         <v>20.48757604485641</v>
       </c>
       <c r="I9" t="n">
-        <v>110.9343794926974</v>
+        <v>0.1109343794926974</v>
       </c>
       <c r="J9" t="n">
         <v>47.41446185053733</v>
@@ -894,7 +894,7 @@
         <v>20.75948616908139</v>
       </c>
       <c r="I10" t="n">
-        <v>100.6113191787936</v>
+        <v>0.1006113191787936</v>
       </c>
       <c r="J10" t="n">
         <v>45.15239689975127</v>
@@ -939,7 +939,7 @@
         <v>21.39651576372974</v>
       </c>
       <c r="I11" t="n">
-        <v>76.02848227498114</v>
+        <v>0.07602848227498114</v>
       </c>
       <c r="J11" t="n">
         <v>29.66965161950483</v>
@@ -984,7 +984,7 @@
         <v>20.74218325656631</v>
       </c>
       <c r="I12" t="n">
-        <v>118.7532796952375</v>
+        <v>0.1187532796952375</v>
       </c>
       <c r="J12" t="n">
         <v>50.75633789529312</v>
@@ -1029,7 +1029,7 @@
         <v>21.41564651981038</v>
       </c>
       <c r="I13" t="n">
-        <v>109.3927586291168</v>
+        <v>0.1093927586291168</v>
       </c>
       <c r="J13" t="n">
         <v>49.0933355798963</v>
@@ -1074,7 +1074,7 @@
         <v>22.53200479065248</v>
       </c>
       <c r="I14" t="n">
-        <v>129.6049287087631</v>
+        <v>0.1296049287087631</v>
       </c>
       <c r="J14" t="n">
         <v>52.8765119343956</v>
@@ -1119,7 +1119,7 @@
         <v>22.97372518875478</v>
       </c>
       <c r="I15" t="n">
-        <v>152.1354449682468</v>
+        <v>0.1521354449682467</v>
       </c>
       <c r="J15" t="n">
         <v>75.86157689473549</v>
@@ -1164,7 +1164,7 @@
         <v>18.9226395723025</v>
       </c>
       <c r="I16" t="n">
-        <v>140.8016607379808</v>
+        <v>0.1408016607379808</v>
       </c>
       <c r="J16" t="n">
         <v>60.1800361806933</v>
@@ -1209,7 +1209,7 @@
         <v>19.43167106710027</v>
       </c>
       <c r="I17" t="n">
-        <v>165.8040216424757</v>
+        <v>0.1658040216424757</v>
       </c>
       <c r="J17" t="n">
         <v>70.86629496449601</v>
@@ -1254,7 +1254,7 @@
         <v>21.33031695384489</v>
       </c>
       <c r="I18" t="n">
-        <v>151.5052933743744</v>
+        <v>0.1515052933743744</v>
       </c>
       <c r="J18" t="n">
         <v>64.75487568149799</v>
@@ -1299,7 +1299,7 @@
         <v>22.44689595086341</v>
       </c>
       <c r="I19" t="n">
-        <v>156.1662223338132</v>
+        <v>0.1561662223338132</v>
       </c>
       <c r="J19" t="n">
         <v>73.77300361854076</v>
@@ -1344,7 +1344,7 @@
         <v>19.60103123269626</v>
       </c>
       <c r="I20" t="n">
-        <v>103.1954023631897</v>
+        <v>0.1031954023631897</v>
       </c>
       <c r="J20" t="n">
         <v>40.27137653197645</v>
@@ -1389,7 +1389,7 @@
         <v>23.49402497125727</v>
       </c>
       <c r="I21" t="n">
-        <v>177.1329008465989</v>
+        <v>0.1771329008465989</v>
       </c>
       <c r="J21" t="n">
         <v>79.49378964822974</v>
@@ -1434,7 +1434,7 @@
         <v>22.13456927681478</v>
       </c>
       <c r="I22" t="n">
-        <v>157.0534550037571</v>
+        <v>0.1570534550037571</v>
       </c>
       <c r="J22" t="n">
         <v>67.12621537907388</v>
@@ -1479,7 +1479,7 @@
         <v>21.8105510401584</v>
       </c>
       <c r="I23" t="n">
-        <v>184.8430248811491</v>
+        <v>0.1848430248811491</v>
       </c>
       <c r="J23" t="n">
         <v>75.41267533953753</v>
@@ -1524,7 +1524,7 @@
         <v>19.18005101631132</v>
       </c>
       <c r="I24" t="n">
-        <v>174.7810850766109</v>
+        <v>0.1747810850766109</v>
       </c>
       <c r="J24" t="n">
         <v>74.70318154261651</v>
@@ -1569,7 +1569,7 @@
         <v>20.85788964943404</v>
       </c>
       <c r="I25" t="n">
-        <v>127.5892514950303</v>
+        <v>0.1275892514950303</v>
       </c>
       <c r="J25" t="n">
         <v>54.53292049961808</v>
@@ -1614,7 +1614,7 @@
         <v>18.01885359325048</v>
       </c>
       <c r="I26" t="n">
-        <v>136.3000008627075</v>
+        <v>0.1363000008627075</v>
       </c>
       <c r="J26" t="n">
         <v>58.25598178568684</v>
@@ -1659,7 +1659,7 @@
         <v>18.40236460346168</v>
       </c>
       <c r="I27" t="n">
-        <v>146.1415030217702</v>
+        <v>0.1461415030217702</v>
       </c>
       <c r="J27" t="n">
         <v>65.58545501464809</v>
@@ -1704,7 +1704,7 @@
         <v>19.98856147903504</v>
       </c>
       <c r="I28" t="n">
-        <v>77.96856437992521</v>
+        <v>0.07796856437992522</v>
       </c>
       <c r="J28" t="n">
         <v>31.80979123260807</v>
@@ -1749,7 +1749,7 @@
         <v>18.06721224599214</v>
       </c>
       <c r="I29" t="n">
-        <v>144.2094997834143</v>
+        <v>0.1442094997834143</v>
       </c>
       <c r="J29" t="n">
         <v>61.636580627522</v>
@@ -1794,7 +1794,7 @@
         <v>18.64653276541594</v>
       </c>
       <c r="I30" t="n">
-        <v>137.6511912995685</v>
+        <v>0.1376511912995685</v>
       </c>
       <c r="J30" t="n">
         <v>68.63907642038104</v>
@@ -1839,7 +1839,7 @@
         <v>17.32283903951856</v>
       </c>
       <c r="I31" t="n">
-        <v>108.1214912652881</v>
+        <v>0.1081214912652881</v>
       </c>
       <c r="J31" t="n">
         <v>44.11165053838807</v>
@@ -1884,7 +1884,7 @@
         <v>20.78685361817955</v>
       </c>
       <c r="I32" t="n">
-        <v>115.1466428255467</v>
+        <v>0.1151466428255467</v>
       </c>
       <c r="J32" t="n">
         <v>46.97778776031171</v>
@@ -1929,7 +1929,7 @@
         <v>20.18520051472768</v>
       </c>
       <c r="I33" t="n">
-        <v>129.9520314411022</v>
+        <v>0.1299520314411022</v>
       </c>
       <c r="J33" t="n">
         <v>58.31993606137267</v>
@@ -1974,7 +1974,7 @@
         <v>19.48948026256432</v>
       </c>
       <c r="I34" t="n">
-        <v>101.7016776372385</v>
+        <v>0.1017016776372385</v>
       </c>
       <c r="J34" t="n">
         <v>41.49248045510397</v>
@@ -2019,7 +2019,7 @@
         <v>18.91418734666564</v>
       </c>
       <c r="I35" t="n">
-        <v>133.5563600631964</v>
+        <v>0.1335563600631964</v>
       </c>
       <c r="J35" t="n">
         <v>54.48862583509563</v>
@@ -2064,7 +2064,7 @@
         <v>17.79461628370002</v>
       </c>
       <c r="I36" t="n">
-        <v>69.01977697884841</v>
+        <v>0.06901977697884841</v>
       </c>
       <c r="J36" t="n">
         <v>30.97472918075148</v>
@@ -2109,7 +2109,7 @@
         <v>19.08192164036077</v>
       </c>
       <c r="I37" t="n">
-        <v>130.560831744706</v>
+        <v>0.130560831744706</v>
       </c>
       <c r="J37" t="n">
         <v>53.26650341690886</v>
@@ -2154,7 +2154,7 @@
         <v>11.56549939643653</v>
       </c>
       <c r="I38" t="n">
-        <v>61.83679898917222</v>
+        <v>0.06183679898917221</v>
       </c>
       <c r="J38" t="n">
         <v>27.7511488146529</v>
@@ -2199,7 +2199,7 @@
         <v>16.74017531198202</v>
       </c>
       <c r="I39" t="n">
-        <v>71.5100876046325</v>
+        <v>0.07151008760463251</v>
       </c>
       <c r="J39" t="n">
         <v>35.6581466646406</v>
@@ -2244,7 +2244,7 @@
         <v>15.33108940890309</v>
       </c>
       <c r="I40" t="n">
-        <v>80.20987279622587</v>
+        <v>0.08020987279622586</v>
       </c>
       <c r="J40" t="n">
         <v>31.30141377413692</v>
@@ -2289,7 +2289,7 @@
         <v>16.66275697612294</v>
       </c>
       <c r="I41" t="n">
-        <v>68.58265259024188</v>
+        <v>0.06858265259024188</v>
       </c>
       <c r="J41" t="n">
         <v>29.3129107470488</v>
@@ -2334,7 +2334,7 @@
         <v>15.58804295429494</v>
       </c>
       <c r="I42" t="n">
-        <v>75.87671499550454</v>
+        <v>0.07587671499550455</v>
       </c>
       <c r="J42" t="n">
         <v>37.8355435207936</v>
@@ -2379,7 +2379,7 @@
         <v>11.73671625869304</v>
       </c>
       <c r="I43" t="n">
-        <v>78.62987731635171</v>
+        <v>0.07862987731635171</v>
       </c>
       <c r="J43" t="n">
         <v>32.07959518006367</v>
@@ -2424,7 +2424,7 @@
         <v>15.90324628191084</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54321819977058</v>
+        <v>0.05854321819977058</v>
       </c>
       <c r="J44" t="n">
         <v>25.02195621081948</v>
@@ -2469,7 +2469,7 @@
         <v>15.48130698864951</v>
       </c>
       <c r="I45" t="n">
-        <v>68.19313580831528</v>
+        <v>0.06819313580831528</v>
       </c>
       <c r="J45" t="n">
         <v>29.14642738380955</v>
@@ -2514,7 +2514,7 @@
         <v>17.15064492293584</v>
       </c>
       <c r="I46" t="n">
-        <v>59.39813540336208</v>
+        <v>0.05939813540336208</v>
       </c>
       <c r="J46" t="n">
         <v>24.23338561911003</v>
@@ -2559,7 +2559,7 @@
         <v>17.30714728382591</v>
       </c>
       <c r="I47" t="n">
-        <v>58.00539650976229</v>
+        <v>0.05800539650976229</v>
       </c>
       <c r="J47" t="n">
         <v>24.79208584853952</v>
@@ -2604,7 +2604,7 @@
         <v>11.35681938715622</v>
       </c>
       <c r="I48" t="n">
-        <v>82.23420593844591</v>
+        <v>0.08223420593844591</v>
       </c>
       <c r="J48" t="n">
         <v>35.14772100505005</v>
@@ -2649,7 +2649,7 @@
         <v>11.81308809279802</v>
       </c>
       <c r="I49" t="n">
-        <v>62.90753734304602</v>
+        <v>0.06290753734304602</v>
       </c>
       <c r="J49" t="n">
         <v>25.66515935946888</v>
@@ -2694,7 +2694,7 @@
         <v>12.04297426127926</v>
       </c>
       <c r="I50" t="n">
-        <v>71.63011647965581</v>
+        <v>0.07163011647965581</v>
       </c>
       <c r="J50" t="n">
         <v>32.14619861526017</v>
@@ -2739,7 +2739,7 @@
         <v>13.2197298502031</v>
       </c>
       <c r="I51" t="n">
-        <v>74.59246373894506</v>
+        <v>0.07459246373894506</v>
       </c>
       <c r="J51" t="n">
         <v>37.19515807036826</v>
@@ -2784,7 +2784,7 @@
         <v>12.4422869574749</v>
       </c>
       <c r="I52" t="n">
-        <v>34.52965285947011</v>
+        <v>0.03452965285947011</v>
       </c>
       <c r="J52" t="n">
         <v>13.47498648174443</v>
@@ -2829,7 +2829,7 @@
         <v>11.70432952519607</v>
       </c>
       <c r="I53" t="n">
-        <v>48.32576021341134</v>
+        <v>0.04832576021341135</v>
       </c>
       <c r="J53" t="n">
         <v>21.68765824211631</v>
@@ -2874,7 +2874,7 @@
         <v>13.29378102988064</v>
       </c>
       <c r="I54" t="n">
-        <v>79.03295505290836</v>
+        <v>0.07903295505290836</v>
       </c>
       <c r="J54" t="n">
         <v>37.33520854874233</v>
@@ -2919,7 +2919,7 @@
         <v>12.48009028248825</v>
       </c>
       <c r="I55" t="n">
-        <v>36.58226203474854</v>
+        <v>0.03658226203474854</v>
       </c>
       <c r="J55" t="n">
         <v>14.92491400087301</v>
@@ -2964,7 +2964,7 @@
         <v>13.4361609549128</v>
       </c>
       <c r="I56" t="n">
-        <v>58.46473778148611</v>
+        <v>0.05846473778148611</v>
       </c>
       <c r="J56" t="n">
         <v>26.23783354095962</v>
@@ -3009,7 +3009,7 @@
         <v>11.24782076180423</v>
       </c>
       <c r="I57" t="n">
-        <v>34.9041660320188</v>
+        <v>0.0349041660320188</v>
       </c>
       <c r="J57" t="n">
         <v>14.24028059842896</v>
@@ -3054,7 +3054,7 @@
         <v>10.87663954466123</v>
       </c>
       <c r="I58" t="n">
-        <v>32.32816171421085</v>
+        <v>0.03232816171421085</v>
       </c>
       <c r="J58" t="n">
         <v>13.1893165308532</v>
@@ -3099,7 +3099,7 @@
         <v>12.81334612602622</v>
       </c>
       <c r="I59" t="n">
-        <v>36.15667888412502</v>
+        <v>0.03615667888412502</v>
       </c>
       <c r="J59" t="n">
         <v>16.22641198702196</v>
@@ -3144,7 +3144,7 @@
         <v>12.97791408108072</v>
       </c>
       <c r="I60" t="n">
-        <v>73.42304780031651</v>
+        <v>0.0734230478003165</v>
       </c>
       <c r="J60" t="n">
         <v>29.95530109813356</v>
@@ -3189,7 +3189,7 @@
         <v>10.32351676986601</v>
       </c>
       <c r="I61" t="n">
-        <v>33.29445186433841</v>
+        <v>0.03329445186433841</v>
       </c>
       <c r="J61" t="n">
         <v>14.23038128464173</v>
@@ -3234,7 +3234,7 @@
         <v>12.72537130831503</v>
       </c>
       <c r="I62" t="n">
-        <v>79.5479827979002</v>
+        <v>0.07954798279790021</v>
       </c>
       <c r="J62" t="n">
         <v>37.57850791993231</v>
@@ -3279,7 +3279,7 @@
         <v>13.06199603922024</v>
       </c>
       <c r="I63" t="n">
-        <v>82.50167412870218</v>
+        <v>0.08250167412870217</v>
       </c>
       <c r="J63" t="n">
         <v>37.02514156019805</v>
@@ -3324,7 +3324,7 @@
         <v>13.2523716450595</v>
       </c>
       <c r="I64" t="n">
-        <v>72.70720251442027</v>
+        <v>0.07270720251442027</v>
       </c>
       <c r="J64" t="n">
         <v>28.37354244465181</v>
@@ -3369,7 +3369,7 @@
         <v>11.72088716226839</v>
       </c>
       <c r="I65" t="n">
-        <v>62.14696975996563</v>
+        <v>0.06214696975996562</v>
       </c>
       <c r="J65" t="n">
         <v>30.9892748938582</v>
@@ -3414,7 +3414,7 @@
         <v>13.07024109963531</v>
       </c>
       <c r="I66" t="n">
-        <v>85.00727689481377</v>
+        <v>0.08500727689481377</v>
       </c>
       <c r="J66" t="n">
         <v>34.68146108347169</v>
@@ -3459,7 +3459,7 @@
         <v>12.32219489417363</v>
       </c>
       <c r="I67" t="n">
-        <v>78.39155075200254</v>
+        <v>0.07839155075200255</v>
       </c>
       <c r="J67" t="n">
         <v>35.18059838626456</v>
@@ -3504,7 +3504,7 @@
         <v>11.99205835873151</v>
       </c>
       <c r="I68" t="n">
-        <v>80.74913714098203</v>
+        <v>0.08074913714098203</v>
       </c>
       <c r="J68" t="n">
         <v>34.5129877675742</v>
@@ -3549,7 +3549,7 @@
         <v>13.10414925682939</v>
       </c>
       <c r="I69" t="n">
-        <v>76.16409182128152</v>
+        <v>0.0761640918212815</v>
       </c>
       <c r="J69" t="n">
         <v>31.07359843706385</v>
@@ -3594,7 +3594,7 @@
         <v>11.61663804487735</v>
       </c>
       <c r="I70" t="n">
-        <v>74.99265616600594</v>
+        <v>0.07499265616600594</v>
       </c>
       <c r="J70" t="n">
         <v>32.05261030091775</v>
@@ -3639,7 +3639,7 @@
         <v>13.54402305685442</v>
       </c>
       <c r="I71" t="n">
-        <v>58.07522099955951</v>
+        <v>0.0580752209995595</v>
       </c>
       <c r="J71" t="n">
         <v>23.69366000868946</v>
@@ -3684,7 +3684,7 @@
         <v>12.69613879515881</v>
       </c>
       <c r="I72" t="n">
-        <v>63.93413046163481</v>
+        <v>0.06393413046163481</v>
       </c>
       <c r="J72" t="n">
         <v>27.32608595805065</v>
@@ -3729,7 +3729,7 @@
         <v>13.54447229954291</v>
       </c>
       <c r="I73" t="n">
-        <v>69.95404019357311</v>
+        <v>0.06995404019357311</v>
       </c>
       <c r="J73" t="n">
         <v>31.39400828199378</v>
@@ -3774,7 +3774,7 @@
         <v>7.667457231850805</v>
       </c>
       <c r="I74" t="n">
-        <v>89.87190870465271</v>
+        <v>0.08987190870465271</v>
       </c>
       <c r="J74" t="n">
         <v>36.66614457129955</v>
@@ -3819,7 +3819,7 @@
         <v>7.36114960194126</v>
       </c>
       <c r="I75" t="n">
-        <v>68.75317438144086</v>
+        <v>0.06875317438144087</v>
       </c>
       <c r="J75" t="n">
         <v>30.85508313703687</v>
@@ -3864,7 +3864,7 @@
         <v>21.59175165795912</v>
       </c>
       <c r="I76" t="n">
-        <v>97.76604684882096</v>
+        <v>0.09776604684882097</v>
       </c>
       <c r="J76" t="n">
         <v>39.88681290506221</v>
@@ -3909,7 +3909,7 @@
         <v>22.96205639038486</v>
       </c>
       <c r="I77" t="n">
-        <v>104.2336782347134</v>
+        <v>0.1042336782347134</v>
       </c>
       <c r="J77" t="n">
         <v>51.97560107096817</v>
@@ -3954,7 +3954,7 @@
         <v>23.29300835565025</v>
       </c>
       <c r="I78" t="n">
-        <v>169.0872172623185</v>
+        <v>0.1690872172623185</v>
       </c>
       <c r="J78" t="n">
         <v>72.26956556624067</v>
@@ -3999,7 +3999,7 @@
         <v>20.95562121403752</v>
       </c>
       <c r="I79" t="n">
-        <v>116.753331676876</v>
+        <v>0.116753331676876</v>
       </c>
       <c r="J79" t="n">
         <v>49.90154013599346</v>
@@ -4044,7 +4044,7 @@
         <v>21.76495936039328</v>
       </c>
       <c r="I80" t="n">
-        <v>117.7916754565729</v>
+        <v>0.1177916754565729</v>
       </c>
       <c r="J80" t="n">
         <v>50.34533863881398</v>
@@ -4089,7 +4089,7 @@
         <v>23.05328902595389</v>
       </c>
       <c r="I81" t="n">
-        <v>114.4678880905692</v>
+        <v>0.1144678880905692</v>
       </c>
       <c r="J81" t="n">
         <v>51.37095465527985</v>
@@ -4134,7 +4134,7 @@
         <v>21.06794636285706</v>
       </c>
       <c r="I82" t="n">
-        <v>119.4641700315665</v>
+        <v>0.1194641700315665</v>
       </c>
       <c r="J82" t="n">
         <v>48.73926227451935</v>
@@ -4179,7 +4179,7 @@
         <v>22.31487492428856</v>
       </c>
       <c r="I83" t="n">
-        <v>141.53087807433</v>
+        <v>0.14153087807433</v>
       </c>
       <c r="J83" t="n">
         <v>60.4917109539529</v>
@@ -4224,7 +4224,7 @@
         <v>21.59307731309357</v>
       </c>
       <c r="I84" t="n">
-        <v>154.4400463427507</v>
+        <v>0.1544400463427507</v>
       </c>
       <c r="J84" t="n">
         <v>69.30967933430762</v>
@@ -4269,7 +4269,7 @@
         <v>22.4065913954408</v>
       </c>
       <c r="I85" t="n">
-        <v>129.9280658805752</v>
+        <v>0.1299280658805752</v>
       </c>
       <c r="J85" t="n">
         <v>50.7036354655903</v>
@@ -4314,7 +4314,7 @@
         <v>21.87863843339257</v>
       </c>
       <c r="I86" t="n">
-        <v>114.3115928881279</v>
+        <v>0.1143115928881279</v>
       </c>
       <c r="J86" t="n">
         <v>48.85791658865397</v>
@@ -4359,7 +4359,7 @@
         <v>21.83616446463035</v>
       </c>
       <c r="I87" t="n">
-        <v>150.9140265756751</v>
+        <v>0.1509140265756751</v>
       </c>
       <c r="J87" t="n">
         <v>67.72727046322981</v>
@@ -4404,7 +4404,7 @@
         <v>2.052765967070313</v>
       </c>
       <c r="I88" t="n">
-        <v>127.4382153512495</v>
+        <v>0.1274382153512495</v>
       </c>
       <c r="J88" t="n">
         <v>51.99253131846987</v>
@@ -4449,7 +4449,7 @@
         <v>2.226084842961511</v>
       </c>
       <c r="I89" t="n">
-        <v>133.223040565781</v>
+        <v>0.133223040565781</v>
       </c>
       <c r="J89" t="n">
         <v>66.43100125773361</v>
@@ -4494,7 +4494,7 @@
         <v>2.159357120593328</v>
       </c>
       <c r="I90" t="n">
-        <v>143.5860920319972</v>
+        <v>0.1435860920319972</v>
       </c>
       <c r="J90" t="n">
         <v>61.37012992772934</v>
@@ -4539,7 +4539,7 @@
         <v>2.138105322145206</v>
       </c>
       <c r="I91" t="n">
-        <v>158.6004887228662</v>
+        <v>0.1586004887228662</v>
       </c>
       <c r="J91" t="n">
         <v>67.78743304299044</v>
@@ -4584,7 +4584,7 @@
         <v>2.268434319197261</v>
       </c>
       <c r="I92" t="n">
-        <v>127.3862981622647</v>
+        <v>0.1273862981622647</v>
       </c>
       <c r="J92" t="n">
         <v>54.44617621801789</v>
@@ -4629,7 +4629,7 @@
         <v>2.307987062671413</v>
       </c>
       <c r="I93" t="n">
-        <v>135.2861372380061</v>
+        <v>0.1352861372380061</v>
       </c>
       <c r="J93" t="n">
         <v>63.90924069780004</v>
@@ -4674,7 +4674,7 @@
         <v>2.26694231160387</v>
       </c>
       <c r="I94" t="n">
-        <v>141.5504489518531</v>
+        <v>0.1415504489518531</v>
       </c>
       <c r="J94" t="n">
         <v>55.23919959096706</v>
@@ -4719,7 +4719,7 @@
         <v>2.238588730974559</v>
       </c>
       <c r="I95" t="n">
-        <v>158.0234196536786</v>
+        <v>0.1580234196536786</v>
       </c>
       <c r="J95" t="n">
         <v>70.91782735677285</v>
@@ -4764,7 +4764,7 @@
         <v>2.090292037449852</v>
       </c>
       <c r="I96" t="n">
-        <v>138.5346310890946</v>
+        <v>0.1385346310890946</v>
       </c>
       <c r="J96" t="n">
         <v>59.21108506479304</v>
@@ -4809,7 +4809,7 @@
         <v>2.061735680783983</v>
       </c>
       <c r="I97" t="n">
-        <v>140.9758262423559</v>
+        <v>0.1409758262423559</v>
       </c>
       <c r="J97" t="n">
         <v>57.51563642703655</v>
@@ -4854,7 +4854,7 @@
         <v>2.313728940682491</v>
       </c>
       <c r="I98" t="n">
-        <v>146.6869888484324</v>
+        <v>0.1466869888484324</v>
       </c>
       <c r="J98" t="n">
         <v>62.69548420002686</v>
@@ -4899,7 +4899,7 @@
         <v>2.064781126780769</v>
       </c>
       <c r="I99" t="n">
-        <v>132.511965349109</v>
+        <v>0.132511965349109</v>
       </c>
       <c r="J99" t="n">
         <v>56.63693757081544</v>
@@ -4944,7 +4944,7 @@
         <v>21.76744893910486</v>
       </c>
       <c r="I100" t="n">
-        <v>54.69000178502711</v>
+        <v>0.05469000178502711</v>
       </c>
       <c r="J100" t="n">
         <v>23.37505302774678</v>
@@ -4989,7 +4989,7 @@
         <v>19.78573286834015</v>
       </c>
       <c r="I101" t="n">
-        <v>97.47656095212535</v>
+        <v>0.09747656095212535</v>
       </c>
       <c r="J101" t="n">
         <v>43.74557857363674</v>
@@ -5034,7 +5034,7 @@
         <v>19.62456424557787</v>
       </c>
       <c r="I102" t="n">
-        <v>95.49582505614326</v>
+        <v>0.09549582505614326</v>
       </c>
       <c r="J102" t="n">
         <v>38.96060268365933</v>
@@ -5079,7 +5079,7 @@
         <v>17.68732245034888</v>
       </c>
       <c r="I103" t="n">
-        <v>126.0062794791439</v>
+        <v>0.1260062794791439</v>
       </c>
       <c r="J103" t="n">
         <v>53.85634244869333</v>
@@ -5124,7 +5124,7 @@
         <v>20.08336704552896</v>
       </c>
       <c r="I104" t="n">
-        <v>120.2692941874466</v>
+        <v>0.1202692941874467</v>
       </c>
       <c r="J104" t="n">
         <v>59.9716805704341</v>
@@ -5169,7 +5169,7 @@
         <v>21.2727485288748</v>
       </c>
       <c r="I105" t="n">
-        <v>91.75914653795117</v>
+        <v>0.09175914653795118</v>
       </c>
       <c r="J105" t="n">
         <v>37.43610413078274</v>
@@ -5214,7 +5214,7 @@
         <v>20.76173280223408</v>
       </c>
       <c r="I106" t="n">
-        <v>128.7271750903393</v>
+        <v>0.1287271750903393</v>
       </c>
       <c r="J106" t="n">
         <v>52.51840402798764</v>
@@ -5259,7 +5259,7 @@
         <v>21.04061699148479</v>
       </c>
       <c r="I107" t="n">
-        <v>97.90413026245606</v>
+        <v>0.09790413026245606</v>
       </c>
       <c r="J107" t="n">
         <v>43.93746333729735</v>
@@ -5304,7 +5304,7 @@
         <v>17.65391224423955</v>
       </c>
       <c r="I108" t="n">
-        <v>118.7261848583002</v>
+        <v>0.1187261848583002</v>
       </c>
       <c r="J108" t="n">
         <v>48.43817741447279</v>
@@ -5349,7 +5349,7 @@
         <v>19.0381112124357</v>
       </c>
       <c r="I109" t="n">
-        <v>78.4816652272558</v>
+        <v>0.0784816652272558</v>
       </c>
       <c r="J109" t="n">
         <v>32.01912727675181</v>
@@ -5394,7 +5394,7 @@
         <v>16.49118982971081</v>
       </c>
       <c r="I110" t="n">
-        <v>118.221691126594</v>
+        <v>0.118221691126594</v>
       </c>
       <c r="J110" t="n">
         <v>53.05558821291048</v>
@@ -5439,7 +5439,7 @@
         <v>17.97604263646141</v>
       </c>
       <c r="I111" t="n">
-        <v>82.09792848513226</v>
+        <v>0.08209792848513225</v>
       </c>
       <c r="J111" t="n">
         <v>33.49449853938876</v>
@@ -5484,7 +5484,7 @@
         <v>18.31059999227494</v>
       </c>
       <c r="I112" t="n">
-        <v>43.12633134631844</v>
+        <v>0.04312633134631844</v>
       </c>
       <c r="J112" t="n">
         <v>19.35425601883559</v>
@@ -5529,7 +5529,7 @@
         <v>16.57444787632467</v>
       </c>
       <c r="I113" t="n">
-        <v>67.63396272459994</v>
+        <v>0.06763396272459994</v>
       </c>
       <c r="J113" t="n">
         <v>33.72533642635878</v>
@@ -5574,7 +5574,7 @@
         <v>14.26102092515507</v>
       </c>
       <c r="I114" t="n">
-        <v>53.72287425409473</v>
+        <v>0.05372287425409474</v>
       </c>
       <c r="J114" t="n">
         <v>20.96502409915892</v>
@@ -5619,7 +5619,7 @@
         <v>16.39856956456184</v>
       </c>
       <c r="I115" t="n">
-        <v>51.4985896600476</v>
+        <v>0.0514985896600476</v>
       </c>
       <c r="J115" t="n">
         <v>22.01101160847563</v>
@@ -5664,7 +5664,7 @@
         <v>16.73638329694101</v>
       </c>
       <c r="I116" t="n">
-        <v>43.22309846296036</v>
+        <v>0.04322309846296036</v>
       </c>
       <c r="J116" t="n">
         <v>21.55298134738403</v>
@@ -5709,7 +5709,7 @@
         <v>15.3378424091511</v>
       </c>
       <c r="I117" t="n">
-        <v>39.37062558609001</v>
+        <v>0.03937062558609002</v>
       </c>
       <c r="J117" t="n">
         <v>16.06251686882608</v>
@@ -5754,7 +5754,7 @@
         <v>16.29580071214618</v>
       </c>
       <c r="I118" t="n">
-        <v>70.54676166261889</v>
+        <v>0.07054676166261888</v>
       </c>
       <c r="J118" t="n">
         <v>30.1523905828615</v>
@@ -5799,7 +5799,7 @@
         <v>19.13926220564279</v>
       </c>
       <c r="I119" t="n">
-        <v>39.23607580311882</v>
+        <v>0.03923607580311882</v>
       </c>
       <c r="J119" t="n">
         <v>16.76989070330746</v>
@@ -5844,7 +5844,7 @@
         <v>18.86359769756237</v>
       </c>
       <c r="I120" t="n">
-        <v>38.3023818546217</v>
+        <v>0.0383023818546217</v>
       </c>
       <c r="J120" t="n">
         <v>15.62669237527803</v>
@@ -5889,7 +5889,7 @@
         <v>11.98804888054988</v>
       </c>
       <c r="I121" t="n">
-        <v>46.71840282503442</v>
+        <v>0.04671840282503442</v>
       </c>
       <c r="J121" t="n">
         <v>19.96791200884165</v>
@@ -5934,7 +5934,7 @@
         <v>14.02810356266895</v>
       </c>
       <c r="I122" t="n">
-        <v>40.76477879186635</v>
+        <v>0.04076477879186635</v>
       </c>
       <c r="J122" t="n">
         <v>17.42327362997307</v>
@@ -5979,7 +5979,7 @@
         <v>14.73257822907859</v>
       </c>
       <c r="I123" t="n">
-        <v>54.58888558449118</v>
+        <v>0.05458888558449118</v>
       </c>
       <c r="J123" t="n">
         <v>22.27129700121148</v>
@@ -6024,7 +6024,7 @@
         <v>11.92391783308417</v>
       </c>
       <c r="I124" t="n">
-        <v>46.21255000461138</v>
+        <v>0.04621255000461139</v>
       </c>
       <c r="J124" t="n">
         <v>20.73929073377682</v>
@@ -6069,7 +6069,7 @@
         <v>11.37293049182675</v>
       </c>
       <c r="I125" t="n">
-        <v>56.81942198663597</v>
+        <v>0.05681942198663596</v>
       </c>
       <c r="J125" t="n">
         <v>28.33271990661522</v>
@@ -6114,7 +6114,7 @@
         <v>10.54334382631368</v>
       </c>
       <c r="I126" t="n">
-        <v>80.92286038051711</v>
+        <v>0.0809228603805171</v>
       </c>
       <c r="J126" t="n">
         <v>31.57965283142131</v>
@@ -6159,7 +6159,7 @@
         <v>11.93959165962047</v>
       </c>
       <c r="I127" t="n">
-        <v>64.0552103153094</v>
+        <v>0.06405521031530939</v>
       </c>
       <c r="J127" t="n">
         <v>28.7467285317486</v>
@@ -6204,7 +6204,7 @@
         <v>10.96068028587724</v>
       </c>
       <c r="I128" t="n">
-        <v>49.06908266975147</v>
+        <v>0.04906908266975147</v>
       </c>
       <c r="J128" t="n">
         <v>23.18025984912521</v>
@@ -6249,7 +6249,7 @@
         <v>10.87683429748446</v>
       </c>
       <c r="I129" t="n">
-        <v>65.89487280247926</v>
+        <v>0.06589487280247926</v>
       </c>
       <c r="J129" t="n">
         <v>26.88393923648821</v>
@@ -6294,7 +6294,7 @@
         <v>10.4894951004444</v>
       </c>
       <c r="I130" t="n">
-        <v>66.41051106166384</v>
+        <v>0.06641051106166383</v>
       </c>
       <c r="J130" t="n">
         <v>29.80374154962474</v>
@@ -6339,7 +6339,7 @@
         <v>11.24643167859661</v>
       </c>
       <c r="I131" t="n">
-        <v>69.15152118586904</v>
+        <v>0.06915152118586905</v>
       </c>
       <c r="J131" t="n">
         <v>28.21259400931242</v>
@@ -6384,7 +6384,7 @@
         <v>11.54614145607383</v>
       </c>
       <c r="I132" t="n">
-        <v>48.82172852327916</v>
+        <v>0.04882172852327916</v>
       </c>
       <c r="J132" t="n">
         <v>19.9183992201405</v>
@@ -6429,7 +6429,7 @@
         <v>11.75218963462721</v>
       </c>
       <c r="I133" t="n">
-        <v>75.66590522362213</v>
+        <v>0.07566590522362214</v>
       </c>
       <c r="J133" t="n">
         <v>33.95738185645481</v>
@@ -6474,7 +6474,7 @@
         <v>11.42527688102839</v>
       </c>
       <c r="I134" t="n">
-        <v>50.61409472310157</v>
+        <v>0.05061409472310157</v>
       </c>
       <c r="J134" t="n">
         <v>20.64965283603257</v>
@@ -6519,7 +6519,7 @@
         <v>11.9555082194016</v>
       </c>
       <c r="I135" t="n">
-        <v>47.10710219806233</v>
+        <v>0.04710710219806233</v>
       </c>
       <c r="J135" t="n">
         <v>20.13404600335301</v>
@@ -6564,7 +6564,7 @@
         <v>11.34694824919066</v>
       </c>
       <c r="I136" t="n">
-        <v>78.89700273913458</v>
+        <v>0.07889700273913458</v>
       </c>
       <c r="J136" t="n">
         <v>37.27098460590696</v>
@@ -6609,7 +6609,7 @@
         <v>10.96748877671333</v>
       </c>
       <c r="I137" t="n">
-        <v>94.93316232735461</v>
+        <v>0.09493316232735462</v>
       </c>
       <c r="J137" t="n">
         <v>42.60415089812987</v>
@@ -6654,7 +6654,7 @@
         <v>10.96323781902467</v>
       </c>
       <c r="I138" t="n">
-        <v>82.94898983964302</v>
+        <v>0.08294898983964301</v>
       </c>
       <c r="J138" t="n">
         <v>32.37033749839727</v>
@@ -6699,7 +6699,7 @@
         <v>11.94677553076016</v>
       </c>
       <c r="I139" t="n">
-        <v>81.69754094913917</v>
+        <v>0.08169754094913917</v>
       </c>
       <c r="J139" t="n">
         <v>40.73806919957075</v>
@@ -6744,7 +6744,7 @@
         <v>11.91330199111661</v>
       </c>
       <c r="I140" t="n">
-        <v>82.38904528828813</v>
+        <v>0.08238904528828812</v>
       </c>
       <c r="J140" t="n">
         <v>33.61326903114194</v>
@@ -6789,7 +6789,7 @@
         <v>11.68347057547105</v>
       </c>
       <c r="I141" t="n">
-        <v>60.75316836877578</v>
+        <v>0.06075316836877578</v>
       </c>
       <c r="J141" t="n">
         <v>27.26483653623108</v>
@@ -6834,7 +6834,7 @@
         <v>12.11248432529005</v>
       </c>
       <c r="I142" t="n">
-        <v>66.30776395466765</v>
+        <v>0.06630776395466764</v>
       </c>
       <c r="J142" t="n">
         <v>28.34060062173948</v>
@@ -6879,7 +6879,7 @@
         <v>11.8980842747537</v>
       </c>
       <c r="I143" t="n">
-        <v>59.09372104546431</v>
+        <v>0.05909372104546431</v>
       </c>
       <c r="J143" t="n">
         <v>24.10918996089896</v>
@@ -6924,7 +6924,7 @@
         <v>11.01168226452014</v>
       </c>
       <c r="I144" t="n">
-        <v>84.0164181178812</v>
+        <v>0.0840164181178812</v>
       </c>
       <c r="J144" t="n">
         <v>35.90945629196316</v>
@@ -6969,7 +6969,7 @@
         <v>10.87788949396425</v>
       </c>
       <c r="I145" t="n">
-        <v>81.46296223660553</v>
+        <v>0.08146296223660554</v>
       </c>
       <c r="J145" t="n">
         <v>33.23544357324926</v>
@@ -7014,7 +7014,7 @@
         <v>11.20441164546583</v>
       </c>
       <c r="I146" t="n">
-        <v>78.37375358313547</v>
+        <v>0.07837375358313546</v>
       </c>
       <c r="J146" t="n">
         <v>33.49772510870365</v>
@@ -7059,7 +7059,7 @@
         <v>11.80131634265856</v>
       </c>
       <c r="I147" t="n">
-        <v>87.96565811139345</v>
+        <v>0.08796565811139345</v>
       </c>
       <c r="J147" t="n">
         <v>39.47727095730828</v>
@@ -7104,7 +7104,7 @@
         <v>11.52261563038462</v>
       </c>
       <c r="I148" t="n">
-        <v>54.55463654882578</v>
+        <v>0.05455463654882579</v>
       </c>
       <c r="J148" t="n">
         <v>22.25732400218169</v>
@@ -7149,7 +7149,7 @@
         <v>11.07018396652053</v>
       </c>
       <c r="I149" t="n">
-        <v>76.52294656848717</v>
+        <v>0.07652294656848718</v>
       </c>
       <c r="J149" t="n">
         <v>34.34200528927229</v>
@@ -7194,7 +7194,7 @@
         <v>10.3741385597083</v>
       </c>
       <c r="I150" t="n">
-        <v>84.08568824065634</v>
+        <v>0.08408568824065633</v>
       </c>
       <c r="J150" t="n">
         <v>34.30546926004604</v>
@@ -7239,7 +7239,7 @@
         <v>9.441201458523246</v>
       </c>
       <c r="I151" t="n">
-        <v>115.4247948951686</v>
+        <v>0.1154247948951686</v>
       </c>
       <c r="J151" t="n">
         <v>57.55599528647974</v>
@@ -7284,7 +7284,7 @@
         <v>9.167609845031905</v>
       </c>
       <c r="I152" t="n">
-        <v>77.87237921604375</v>
+        <v>0.07787237921604376</v>
       </c>
       <c r="J152" t="n">
         <v>33.28343269628815</v>
@@ -7329,7 +7329,7 @@
         <v>10.61935916134913</v>
       </c>
       <c r="I153" t="n">
-        <v>99.11394712853236</v>
+        <v>0.09911394712853236</v>
       </c>
       <c r="J153" t="n">
         <v>42.3622909910568</v>
@@ -7374,7 +7374,7 @@
         <v>10.894677301732</v>
       </c>
       <c r="I154" t="n">
-        <v>98.33637192342754</v>
+        <v>0.09833637192342753</v>
       </c>
       <c r="J154" t="n">
         <v>42.02994758167401</v>
@@ -7419,7 +7419,7 @@
         <v>10.30287784867821</v>
       </c>
       <c r="I155" t="n">
-        <v>104.918869644485</v>
+        <v>0.104918869644485</v>
       </c>
       <c r="J155" t="n">
         <v>47.08554149898836</v>
@@ -7464,7 +7464,7 @@
         <v>9.355981768459435</v>
       </c>
       <c r="I156" t="n">
-        <v>118.3108477666363</v>
+        <v>0.1183108477666363</v>
       </c>
       <c r="J156" t="n">
         <v>48.26872724847244</v>
@@ -7509,7 +7509,7 @@
         <v>10.16345031905196</v>
       </c>
       <c r="I157" t="n">
-        <v>99.18596171376481</v>
+        <v>0.09918596171376481</v>
       </c>
       <c r="J157" t="n">
         <v>42.39307074409459</v>
@@ -7554,7 +7554,7 @@
         <v>10.14797265268915</v>
       </c>
       <c r="I158" t="n">
-        <v>78.48495897903373</v>
+        <v>0.07848495897903374</v>
       </c>
       <c r="J158" t="n">
         <v>35.22251817595659</v>
@@ -7599,7 +7599,7 @@
         <v>10.92166727438468</v>
       </c>
       <c r="I159" t="n">
-        <v>106.4639927073838</v>
+        <v>0.1064639927073838</v>
       </c>
       <c r="J159" t="n">
         <v>41.54692398336927</v>
@@ -7644,7 +7644,7 @@
         <v>9.986427529626253</v>
       </c>
       <c r="I160" t="n">
-        <v>94.65451230628987</v>
+        <v>0.09465451230628988</v>
       </c>
       <c r="J160" t="n">
         <v>40.4562840054758</v>
@@ -7689,7 +7689,7 @@
         <v>9.623080218778487</v>
       </c>
       <c r="I161" t="n">
-        <v>111.9134001823154</v>
+        <v>0.1119134001823154</v>
       </c>
       <c r="J161" t="n">
         <v>50.22455032572203</v>
@@ -7734,7 +7734,7 @@
         <v>9.178149498632635</v>
       </c>
       <c r="I162" t="n">
-        <v>64.21148587055606</v>
+        <v>0.06421148587055606</v>
       </c>
       <c r="J162" t="n">
         <v>26.19714722878562</v>
@@ -7779,7 +7779,7 @@
         <v>9.789128532360985</v>
       </c>
       <c r="I163" t="n">
-        <v>68.57064721969006</v>
+        <v>0.06857064721969007</v>
       </c>
       <c r="J163" t="n">
         <v>34.19240945372078</v>
@@ -7824,7 +7824,7 @@
         <v>8.545418413855971</v>
       </c>
       <c r="I164" t="n">
-        <v>81.16226071103009</v>
+        <v>0.08116226071103008</v>
       </c>
       <c r="J164" t="n">
         <v>34.68956090785025</v>
@@ -7869,7 +7869,7 @@
         <v>9.989427529626253</v>
       </c>
       <c r="I165" t="n">
-        <v>89.16226071103009</v>
+        <v>0.08916226071103009</v>
       </c>
       <c r="J165" t="n">
         <v>38.10884081493504</v>
@@ -7914,7 +7914,7 @@
         <v>10.78849407474932</v>
       </c>
       <c r="I166" t="n">
-        <v>80.81130355515042</v>
+        <v>0.08081130355515041</v>
       </c>
       <c r="J166" t="n">
         <v>34.53955831393188</v>
@@ -7959,7 +7959,7 @@
         <v>9.923694621695534</v>
       </c>
       <c r="I167" t="n">
-        <v>83.40929808568823</v>
+        <v>0.08340929808568824</v>
       </c>
       <c r="J167" t="n">
         <v>39.40259524458699</v>
@@ -8004,7 +8004,7 @@
         <v>10.29969188696445</v>
       </c>
       <c r="I168" t="n">
-        <v>79.5897903372835</v>
+        <v>0.0795897903372835</v>
       </c>
       <c r="J168" t="n">
         <v>31.05943037552526</v>
@@ -8049,7 +8049,7 @@
         <v>9.378255241567913</v>
       </c>
       <c r="I169" t="n">
-        <v>89.83135824977211</v>
+        <v>0.08983135824977211</v>
       </c>
       <c r="J169" t="n">
         <v>40.31456077550747</v>
@@ -8094,7 +8094,7 @@
         <v>9.057064721969006</v>
       </c>
       <c r="I170" t="n">
-        <v>78.33728350045578</v>
+        <v>0.0783372835004558</v>
       </c>
       <c r="J170" t="n">
         <v>33.48213743108911</v>
@@ -8139,7 +8139,7 @@
         <v>9.181547857793984</v>
       </c>
       <c r="I171" t="n">
-        <v>79.49772105742936</v>
+        <v>0.07949772105742936</v>
       </c>
       <c r="J171" t="n">
         <v>32.43366003229933</v>
@@ -8184,7 +8184,7 @@
         <v>10.44314494074749</v>
       </c>
       <c r="I172" t="n">
-        <v>66.43755697356427</v>
+        <v>0.06643755697356427</v>
       </c>
       <c r="J172" t="n">
         <v>28.39607545443861</v>
@@ -8229,7 +8229,7 @@
         <v>9.860143117593436</v>
       </c>
       <c r="I173" t="n">
-        <v>70.73928896991796</v>
+        <v>0.07073928896991796</v>
       </c>
       <c r="J173" t="n">
         <v>30.2346786770381</v>
@@ -8274,7 +8274,7 @@
         <v>6.576449407474931</v>
       </c>
       <c r="I174" t="n">
-        <v>-135.8805834092981</v>
+        <v>-0.1358805834092981</v>
       </c>
       <c r="J174" t="n">
         <v>-58.07671857679638</v>
@@ -8319,7 +8319,7 @@
         <v>8.915320875113947</v>
       </c>
       <c r="I175" t="n">
-        <v>73.281677301732</v>
+        <v>0.07328167730173199</v>
       </c>
       <c r="J175" t="n">
         <v>32.88738688663094</v>
@@ -8364,7 +8364,7 @@
         <v>7.819181403828623</v>
       </c>
       <c r="I176" t="n">
-        <v>72.99908842297174</v>
+        <v>0.07299908842297173</v>
       </c>
       <c r="J176" t="n">
         <v>29.78233319252062</v>
@@ -8409,7 +8409,7 @@
         <v>7.291766636280765</v>
       </c>
       <c r="I177" t="n">
-        <v>73.13582497721058</v>
+        <v>0.07313582497721056</v>
       </c>
       <c r="J177" t="n">
         <v>31.25898210408071</v>
@@ -8454,7 +8454,7 @@
         <v>7.870286235186873</v>
       </c>
       <c r="I178" t="n">
-        <v>66.07110300820419</v>
+        <v>0.06607110300820419</v>
       </c>
       <c r="J178" t="n">
         <v>32.94602426425357</v>
@@ -8499,7 +8499,7 @@
         <v>8.925445761166818</v>
       </c>
       <c r="I179" t="n">
-        <v>77.8669097538742</v>
+        <v>0.07786690975387421</v>
       </c>
       <c r="J179" t="n">
         <v>31.76831794836552</v>
@@ -8544,7 +8544,7 @@
         <v>6.982644484958979</v>
       </c>
       <c r="I180" t="n">
-        <v>63.32725615314494</v>
+        <v>0.06332725615314494</v>
       </c>
       <c r="J180" t="n">
         <v>25.83639718886623</v>
@@ -8589,7 +8589,7 @@
         <v>7.340412032816774</v>
       </c>
       <c r="I181" t="n">
-        <v>69.89061075660894</v>
+        <v>0.06989061075660893</v>
       </c>
       <c r="J181" t="n">
         <v>31.36554238833181</v>
@@ -8634,7 +8634,7 @@
         <v>6.828914311759344</v>
       </c>
       <c r="I182" t="n">
-        <v>62.8714676390155</v>
+        <v>0.06287146763901551</v>
       </c>
       <c r="J182" t="n">
         <v>25.6504435600418</v>
@@ -8679,7 +8679,7 @@
         <v>7.545567912488606</v>
       </c>
       <c r="I183" t="n">
-        <v>64.96809480401095</v>
+        <v>0.06496809480401095</v>
       </c>
       <c r="J183" t="n">
         <v>26.50583025263417</v>
@@ -8724,7 +8724,7 @@
         <v>8.620674567000911</v>
       </c>
       <c r="I184" t="n">
-        <v>-139.1978122151322</v>
+        <v>-0.1391978122151322</v>
       </c>
       <c r="J184" t="n">
         <v>-62.46926206727882</v>
@@ -8769,7 +8769,7 @@
         <v>8.1998322698268</v>
       </c>
       <c r="I185" t="n">
-        <v>41.11212397447584</v>
+        <v>0.04111212397447584</v>
       </c>
       <c r="J185" t="n">
         <v>16.77301731996353</v>
@@ -8814,7 +8814,7 @@
         <v>11.52617502278943</v>
       </c>
       <c r="I186" t="n">
-        <v>43.19234275296262</v>
+        <v>0.04319234275296262</v>
       </c>
       <c r="J186" t="n">
         <v>19.38388065011005</v>
@@ -8859,7 +8859,7 @@
         <v>8.518577939835916</v>
       </c>
       <c r="I187" t="n">
-        <v>57.87055606198724</v>
+        <v>0.05787055606198724</v>
       </c>
       <c r="J187" t="n">
         <v>28.85686264337575</v>
@@ -8904,7 +8904,7 @@
         <v>10.39000455788514</v>
       </c>
       <c r="I188" t="n">
-        <v>68.69917958067457</v>
+        <v>0.06869917958067456</v>
       </c>
       <c r="J188" t="n">
         <v>26.80943593392178</v>
@@ -8949,7 +8949,7 @@
         <v>9.897435733819508</v>
       </c>
       <c r="I189" t="n">
-        <v>50.35095715587967</v>
+        <v>0.05035095715587967</v>
       </c>
       <c r="J189" t="n">
         <v>21.52050201319827</v>
@@ -8994,7 +8994,7 @@
         <v>9.854103008204193</v>
       </c>
       <c r="I190" t="n">
-        <v>79.52415679124886</v>
+        <v>0.07952415679124886</v>
       </c>
       <c r="J190" t="n">
         <v>39.65432208560918</v>
@@ -9039,7 +9039,7 @@
         <v>9.964506836827711</v>
       </c>
       <c r="I191" t="n">
-        <v>50.40291704649043</v>
+        <v>0.05040291704649043</v>
       </c>
       <c r="J191" t="n">
         <v>20.5634960899207</v>
@@ -9084,7 +9084,7 @@
         <v>10.55380401093892</v>
       </c>
       <c r="I192" t="n">
-        <v>74.09115770282588</v>
+        <v>0.07409115770282589</v>
       </c>
       <c r="J192" t="n">
         <v>31.66730085324032</v>
@@ -9129,7 +9129,7 @@
         <v>11.06776754785779</v>
       </c>
       <c r="I193" t="n">
-        <v>62.20601640838651</v>
+        <v>0.06220601640838651</v>
       </c>
       <c r="J193" t="n">
         <v>26.5874727506228</v>
@@ -9174,7 +9174,7 @@
         <v>7.847650865998176</v>
       </c>
       <c r="I194" t="n">
-        <v>66.50957155879672</v>
+        <v>0.06650957155879672</v>
       </c>
       <c r="J194" t="n">
         <v>27.13472542531839</v>
@@ -9219,7 +9219,7 @@
         <v>9.220340929808568</v>
       </c>
       <c r="I195" t="n">
-        <v>48.63901549680948</v>
+        <v>0.04863901549680948</v>
       </c>
       <c r="J195" t="n">
         <v>20.78880104857826</v>
@@ -9264,7 +9264,7 @@
         <v>10.32164266180492</v>
       </c>
       <c r="I196" t="n">
-        <v>53.30993618960802</v>
+        <v>0.05330993618960802</v>
       </c>
       <c r="J196" t="n">
         <v>22.78519920763734</v>
@@ -9309,7 +9309,7 @@
         <v>10.36097721057429</v>
       </c>
       <c r="I197" t="n">
-        <v>52.12397447584321</v>
+        <v>0.0521239744758432</v>
       </c>
       <c r="J197" t="n">
         <v>21.26565699236175</v>
@@ -9354,7 +9354,7 @@
         <v>3.570137648131267</v>
       </c>
       <c r="I198" t="n">
-        <v>81.50045578851413</v>
+        <v>0.08150045578851413</v>
       </c>
       <c r="J198" t="n">
         <v>36.57581430508926</v>
@@ -9399,7 +9399,7 @@
         <v>1.309254329990884</v>
       </c>
       <c r="I199" t="n">
-        <v>95.06836827711943</v>
+        <v>0.09506836827711942</v>
       </c>
       <c r="J199" t="n">
         <v>47.40536521135493</v>
@@ -9444,7 +9444,7 @@
         <v>7.823020054694622</v>
       </c>
       <c r="I200" t="n">
-        <v>84.47584320875114</v>
+        <v>0.08447584320875115</v>
       </c>
       <c r="J200" t="n">
         <v>32.96618271561019</v>
@@ -9489,7 +9489,7 @@
         <v>7.427137648131267</v>
       </c>
       <c r="I201" t="n">
-        <v>79.2306289881495</v>
+        <v>0.07923062898814949</v>
       </c>
       <c r="J201" t="n">
         <v>35.55716032638904</v>
@@ -9534,7 +9534,7 @@
         <v>2.533302643573382</v>
       </c>
       <c r="I202" t="n">
-        <v>90.87967183226982</v>
+        <v>0.09087967183226983</v>
       </c>
       <c r="J202" t="n">
         <v>42.93160363835082</v>
@@ -9579,7 +9579,7 @@
         <v>2.75906836827712</v>
       </c>
       <c r="I203" t="n">
-        <v>73.40747493163173</v>
+        <v>0.07340747493163172</v>
       </c>
       <c r="J203" t="n">
         <v>29.9489476439473</v>
@@ -9624,7 +9624,7 @@
         <v>9.70099453053783</v>
       </c>
       <c r="I204" t="n">
-        <v>79.89243391066545</v>
+        <v>0.07989243391066544</v>
       </c>
       <c r="J204" t="n">
         <v>35.85416546234741</v>
@@ -9669,7 +9669,7 @@
         <v>11.67120054694622</v>
       </c>
       <c r="I205" t="n">
-        <v>81.48495897903373</v>
+        <v>0.08148495897903373</v>
       </c>
       <c r="J205" t="n">
         <v>33.24441785397384</v>
@@ -9714,7 +9714,7 @@
         <v>2.118560619872379</v>
       </c>
       <c r="I206" t="n">
-        <v>66.87784867821331</v>
+        <v>0.06687784867821331</v>
       </c>
       <c r="J206" t="n">
         <v>27.28497595740853</v>
@@ -9759,7 +9759,7 @@
         <v>8.200511394712853</v>
       </c>
       <c r="I207" t="n">
-        <v>81.57976298997265</v>
+        <v>0.08157976298997265</v>
       </c>
       <c r="J207" t="n">
         <v>36.61140582964626</v>
@@ -9804,7 +9804,7 @@
         <v>3.16612032816773</v>
       </c>
       <c r="I208" t="n">
-        <v>91.78669097538742</v>
+        <v>0.09178669097538741</v>
       </c>
       <c r="J208" t="n">
         <v>37.4473417726636</v>
@@ -9849,7 +9849,7 @@
         <v>11.75243299908842</v>
       </c>
       <c r="I209" t="n">
-        <v>92.31631722880583</v>
+        <v>0.09231631722880584</v>
       </c>
       <c r="J209" t="n">
         <v>39.45691607456509</v>
@@ -9894,7 +9894,7 @@
         <v>11.45794439380128</v>
       </c>
       <c r="I210" t="n">
-        <v>96.34275296262534</v>
+        <v>0.09634275296262536</v>
       </c>
       <c r="J210" t="n">
         <v>45.51236596950721</v>
@@ -9939,7 +9939,7 @@
         <v>10.36973837739289</v>
       </c>
       <c r="I211" t="n">
-        <v>99.19325432999088</v>
+        <v>0.09919325432999089</v>
       </c>
       <c r="J211" t="n">
         <v>44.51599706516663</v>
@@ -9984,7 +9984,7 @@
         <v>10.37647493163172</v>
       </c>
       <c r="I212" t="n">
-        <v>70.82680036463081</v>
+        <v>0.07082680036463081</v>
       </c>
       <c r="J212" t="n">
         <v>27.63972697156324</v>
@@ -10029,7 +10029,7 @@
         <v>10.65555332725615</v>
       </c>
       <c r="I213" t="n">
-        <v>77.80765724703737</v>
+        <v>0.07780765724703737</v>
       </c>
       <c r="J213" t="n">
         <v>38.79839819364464</v>
@@ -10074,7 +10074,7 @@
         <v>10.78309845031905</v>
       </c>
       <c r="I214" t="n">
-        <v>94.45123062898816</v>
+        <v>0.09445123062898816</v>
       </c>
       <c r="J214" t="n">
         <v>38.53442668677122</v>
@@ -10119,7 +10119,7 @@
         <v>11.57766727438469</v>
       </c>
       <c r="I215" t="n">
-        <v>77.68459434822242</v>
+        <v>0.07768459434822243</v>
       </c>
       <c r="J215" t="n">
         <v>34.86333014651932</v>
@@ -10164,7 +10164,7 @@
         <v>9.818726526891522</v>
       </c>
       <c r="I216" t="n">
-        <v>66.02734731084777</v>
+        <v>0.06602734731084776</v>
       </c>
       <c r="J216" t="n">
         <v>28.22074774726129</v>
@@ -10209,7 +10209,7 @@
         <v>11.80290793072015</v>
       </c>
       <c r="I217" t="n">
-        <v>82.52962625341841</v>
+        <v>0.08252962625341842</v>
       </c>
       <c r="J217" t="n">
         <v>33.67062357123944</v>
@@ -10254,7 +10254,7 @@
         <v>11.28653691886964</v>
       </c>
       <c r="I218" t="n">
-        <v>97.91157702825889</v>
+        <v>0.09791157702825888</v>
       </c>
       <c r="J218" t="n">
         <v>41.84838600046372</v>
@@ -10299,7 +10299,7 @@
         <v>11.24150683682771</v>
       </c>
       <c r="I219" t="n">
-        <v>83.97174111212398</v>
+        <v>0.08397174111212397</v>
       </c>
       <c r="J219" t="n">
         <v>34.25898085283993</v>
@@ -10344,7 +10344,7 @@
         <v>11.32097903372835</v>
       </c>
       <c r="I220" t="n">
-        <v>99.51504102096627</v>
+        <v>0.09951504102096628</v>
       </c>
       <c r="J220" t="n">
         <v>42.53372252696351</v>
@@ -10389,7 +10389,7 @@
         <v>10.306677301732</v>
       </c>
       <c r="I221" t="n">
-        <v>58.18960802187785</v>
+        <v>0.05818960802187785</v>
       </c>
       <c r="J221" t="n">
         <v>26.11436067323298</v>
@@ -10434,7 +10434,7 @@
         <v>11.24889334548769</v>
       </c>
       <c r="I222" t="n">
-        <v>88.94074749316317</v>
+        <v>0.08894074749316316</v>
       </c>
       <c r="J222" t="n">
         <v>36.28624731428386</v>
@@ -10479,7 +10479,7 @@
         <v>11.79238468550593</v>
       </c>
       <c r="I223" t="n">
-        <v>83.95715587967183</v>
+        <v>0.08395715587967183</v>
       </c>
       <c r="J223" t="n">
         <v>37.6783333703893</v>
@@ -10524,7 +10524,7 @@
         <v>10.22702416780666</v>
       </c>
       <c r="I224" t="n">
-        <v>76.77701778385773</v>
+        <v>0.07677701778385773</v>
       </c>
       <c r="J224" t="n">
         <v>31.32366135749406</v>
@@ -10569,7 +10569,7 @@
         <v>10.82804103967168</v>
       </c>
       <c r="I225" t="n">
-        <v>59.19015047879617</v>
+        <v>0.05919015047879617</v>
       </c>
       <c r="J225" t="n">
         <v>29.51487178346476</v>
@@ -10614,7 +10614,7 @@
         <v>10.29982489740082</v>
       </c>
       <c r="I226" t="n">
-        <v>76.34655722754218</v>
+        <v>0.07634655722754217</v>
       </c>
       <c r="J226" t="n">
         <v>32.6312811379042</v>
@@ -10659,7 +10659,7 @@
         <v>10.88309895120839</v>
       </c>
       <c r="I227" t="n">
-        <v>123.1700866393069</v>
+        <v>0.1231700866393069</v>
       </c>
       <c r="J227" t="n">
         <v>52.64412529995926</v>
@@ -10704,7 +10704,7 @@
         <v>10.64083812129503</v>
       </c>
       <c r="I228" t="n">
-        <v>132.077519379845</v>
+        <v>0.132077519379845</v>
       </c>
       <c r="J228" t="n">
         <v>56.45125102413814</v>
@@ -10749,7 +10749,7 @@
         <v>9.838041039671682</v>
       </c>
       <c r="I229" t="n">
-        <v>45.93068855449157</v>
+        <v>0.04593068855449156</v>
       </c>
       <c r="J229" t="n">
         <v>20.61279681469865</v>
@@ -10794,7 +10794,7 @@
         <v>9.13010761513908</v>
       </c>
       <c r="I230" t="n">
-        <v>131.0816233470132</v>
+        <v>0.1310816233470132</v>
       </c>
       <c r="J230" t="n">
         <v>53.47897715266171</v>
@@ -10839,7 +10839,7 @@
         <v>10.2873926128591</v>
       </c>
       <c r="I231" t="n">
-        <v>103.3360693114455</v>
+        <v>0.1033360693114455</v>
       </c>
       <c r="J231" t="n">
         <v>44.16686818421829</v>
@@ -10884,7 +10884,7 @@
         <v>10.17942544459644</v>
       </c>
       <c r="I232" t="n">
-        <v>48.71135430916553</v>
+        <v>0.04871135430916552</v>
       </c>
       <c r="J232" t="n">
         <v>21.86070534850355</v>
@@ -10929,7 +10929,7 @@
         <v>10.14166985864113</v>
       </c>
       <c r="I233" t="n">
-        <v>134.6228910168719</v>
+        <v>0.1346228910168719</v>
       </c>
       <c r="J233" t="n">
         <v>52.53576234804756</v>
@@ -10974,7 +10974,7 @@
         <v>9.538239854081167</v>
       </c>
       <c r="I234" t="n">
-        <v>94.55357957136343</v>
+        <v>0.09455357957136343</v>
       </c>
       <c r="J234" t="n">
         <v>40.41314434641317</v>
@@ -11019,7 +11019,7 @@
         <v>9.869126310989513</v>
       </c>
       <c r="I235" t="n">
-        <v>120.3675330597355</v>
+        <v>0.1203675330597355</v>
       </c>
       <c r="J235" t="n">
         <v>54.01860020241789</v>
@@ -11064,7 +11064,7 @@
         <v>10.93727131782946</v>
       </c>
       <c r="I236" t="n">
-        <v>135.9343365253078</v>
+        <v>0.1359343365253078</v>
       </c>
       <c r="J236" t="n">
         <v>55.45879805023644</v>
@@ -11109,7 +11109,7 @@
         <v>11.55836935704514</v>
       </c>
       <c r="I237" t="n">
-        <v>130.1732786137711</v>
+        <v>0.1301732786137711</v>
       </c>
       <c r="J237" t="n">
         <v>64.91025275049832</v>
@@ -11154,7 +11154,7 @@
         <v>10.04688554491564</v>
       </c>
       <c r="I238" t="n">
-        <v>93.82489740082079</v>
+        <v>0.09382489740082078</v>
       </c>
       <c r="J238" t="n">
         <v>40.10169830836475</v>
@@ -11199,7 +11199,7 @@
         <v>11.25375558595531</v>
       </c>
       <c r="I239" t="n">
-        <v>88.27724578203375</v>
+        <v>0.08827724578203375</v>
       </c>
       <c r="J239" t="n">
         <v>37.73057659441164</v>
@@ -11244,7 +11244,7 @@
         <v>10.32691564067487</v>
       </c>
       <c r="I240" t="n">
-        <v>105.0533515731874</v>
+        <v>0.1050533515731874</v>
       </c>
       <c r="J240" t="n">
         <v>44.90085177576419</v>
@@ -11289,7 +11289,7 @@
         <v>9.99135066119471</v>
       </c>
       <c r="I241" t="n">
-        <v>84.41130870953032</v>
+        <v>0.08441130870953033</v>
       </c>
       <c r="J241" t="n">
         <v>39.87594557780123</v>
@@ -11334,7 +11334,7 @@
         <v>11.6003374373005</v>
       </c>
       <c r="I242" t="n">
-        <v>74.40857273141815</v>
+        <v>0.07440857273141814</v>
       </c>
       <c r="J242" t="n">
         <v>29.03749179762659</v>
@@ -11379,7 +11379,7 @@
         <v>9.623293205654354</v>
       </c>
       <c r="I243" t="n">
-        <v>116.093935248518</v>
+        <v>0.116093935248518</v>
       </c>
       <c r="J243" t="n">
         <v>52.10069289201783</v>
@@ -11424,7 +11424,7 @@
         <v>11.35803647970816</v>
       </c>
       <c r="I244" t="n">
-        <v>100.3228454172367</v>
+        <v>0.1003228454172367</v>
       </c>
       <c r="J244" t="n">
         <v>42.87898619459128</v>
@@ -11469,7 +11469,7 @@
         <v>9.750603739170087</v>
       </c>
       <c r="I245" t="n">
-        <v>81.17829457364341</v>
+        <v>0.08117829457364341</v>
       </c>
       <c r="J245" t="n">
         <v>33.11930421629798</v>
@@ -11514,7 +11514,7 @@
         <v>9.992113087095303</v>
       </c>
       <c r="I246" t="n">
-        <v>100.6000911992704</v>
+        <v>0.1006000911992704</v>
       </c>
       <c r="J246" t="n">
         <v>42.99748381107027</v>
@@ -11559,7 +11559,7 @@
         <v>10.82321933424533</v>
       </c>
       <c r="I247" t="n">
-        <v>94.54810761513907</v>
+        <v>0.09454810761513908</v>
       </c>
       <c r="J247" t="n">
         <v>40.41080557766687</v>
@@ -11604,7 +11604,7 @@
         <v>10.7668773369813</v>
       </c>
       <c r="I248" t="n">
-        <v>71.75558595531236</v>
+        <v>0.07175558595531235</v>
       </c>
       <c r="J248" t="n">
         <v>30.66905415976184</v>
@@ -11649,7 +11649,7 @@
         <v>10.40357136342909</v>
       </c>
       <c r="I249" t="n">
-        <v>80.45964432284542</v>
+        <v>0.08045964432284541</v>
       </c>
       <c r="J249" t="n">
         <v>36.10871842781355</v>
@@ -11694,7 +11694,7 @@
         <v>10.34958413132695</v>
       </c>
       <c r="I250" t="n">
-        <v>63.81577747378021</v>
+        <v>0.06381577747378021</v>
       </c>
       <c r="J250" t="n">
         <v>26.03570522211875</v>
@@ -11739,7 +11739,7 @@
         <v>8.209927040583676</v>
       </c>
       <c r="I251" t="n">
-        <v>95.21842225262196</v>
+        <v>0.09521842225262198</v>
       </c>
       <c r="J251" t="n">
         <v>40.69730474908813</v>
@@ -11784,7 +11784,7 @@
         <v>11.03167168262654</v>
       </c>
       <c r="I252" t="n">
-        <v>58.90287277701778</v>
+        <v>0.05890287277701779</v>
       </c>
       <c r="J252" t="n">
         <v>29.37162219775412</v>
@@ -11829,7 +11829,7 @@
         <v>9.080695850433196</v>
       </c>
       <c r="I253" t="n">
-        <v>65.68171454628363</v>
+        <v>0.06568171454628363</v>
       </c>
       <c r="J253" t="n">
         <v>26.79697444903811</v>
@@ -11874,7 +11874,7 @@
         <v>11.68574464204286</v>
       </c>
       <c r="I254" t="n">
-        <v>86.19334245326037</v>
+        <v>0.08619334245326038</v>
       </c>
       <c r="J254" t="n">
         <v>35.165354792461</v>
@@ -11919,7 +11919,7 @@
         <v>9.044225262197902</v>
       </c>
       <c r="I255" t="n">
-        <v>87.71363429092567</v>
+        <v>0.08771363429092567</v>
       </c>
       <c r="J255" t="n">
         <v>39.3641675842203</v>
@@ -11964,7 +11964,7 @@
         <v>9.650863657090744</v>
       </c>
       <c r="I256" t="n">
-        <v>61.29138166894665</v>
+        <v>0.06129138166894664</v>
       </c>
       <c r="J256" t="n">
         <v>25.00579651238622</v>
@@ -12009,7 +12009,7 @@
         <v>9.827216598267213</v>
       </c>
       <c r="I257" t="n">
-        <v>75.1062471500228</v>
+        <v>0.0751062471500228</v>
       </c>
       <c r="J257" t="n">
         <v>30.64201657561905</v>
@@ -12054,7 +12054,7 @@
         <v>8.252016415868674</v>
       </c>
       <c r="I258" t="n">
-        <v>88.2234382124943</v>
+        <v>0.0882234382124943</v>
       </c>
       <c r="J258" t="n">
         <v>39.59295763682671</v>
@@ -12099,7 +12099,7 @@
         <v>10.95156406748746</v>
       </c>
       <c r="I259" t="n">
-        <v>100.3666210670315</v>
+        <v>0.1003666210670315</v>
       </c>
       <c r="J259" t="n">
         <v>40.94780105617248</v>
@@ -12144,7 +12144,7 @@
         <v>11.15235294117647</v>
       </c>
       <c r="I260" t="n">
-        <v>64.25444596443228</v>
+        <v>0.06425444596443228</v>
       </c>
       <c r="J260" t="n">
         <v>28.8361416035501</v>
@@ -12189,7 +12189,7 @@
         <v>9.398445964432286</v>
       </c>
       <c r="I261" t="n">
-        <v>65.72731418148655</v>
+        <v>0.06572731418148656</v>
       </c>
       <c r="J261" t="n">
         <v>32.77459568941335</v>
@@ -12234,7 +12234,7 @@
         <v>9.160890104879162</v>
       </c>
       <c r="I262" t="n">
-        <v>61.15914272685819</v>
+        <v>0.06115914272685818</v>
       </c>
       <c r="J262" t="n">
         <v>23.86698252755441</v>
@@ -12279,7 +12279,7 @@
         <v>9.81753032375741</v>
       </c>
       <c r="I263" t="n">
-        <v>49.54582763337893</v>
+        <v>0.04954582763337893</v>
       </c>
       <c r="J263" t="n">
         <v>21.17638161333734</v>
@@ -12324,7 +12324,7 @@
         <v>11.46684268125855</v>
       </c>
       <c r="I264" t="n">
-        <v>81.47013223894209</v>
+        <v>0.08147013223894209</v>
       </c>
       <c r="J264" t="n">
         <v>40.62467298635594</v>
@@ -12369,7 +12369,7 @@
         <v>10.35437665298678</v>
       </c>
       <c r="I265" t="n">
-        <v>82.48335613315093</v>
+        <v>0.08248335613315093</v>
       </c>
       <c r="J265" t="n">
         <v>33.65174618292632</v>
@@ -12414,7 +12414,7 @@
         <v>11.26115093479252</v>
       </c>
       <c r="I266" t="n">
-        <v>64.70405836753307</v>
+        <v>0.06470405836753307</v>
       </c>
       <c r="J266" t="n">
         <v>27.65516083536837</v>
@@ -12459,7 +12459,7 @@
         <v>10.28306064751482</v>
       </c>
       <c r="I267" t="n">
-        <v>66.4578203374373</v>
+        <v>0.0664578203374373</v>
       </c>
       <c r="J267" t="n">
         <v>28.40473621855624</v>
@@ -12504,7 +12504,7 @@
         <v>10.01138258093935</v>
       </c>
       <c r="I268" t="n">
-        <v>60.70405836753306</v>
+        <v>0.06070405836753306</v>
       </c>
       <c r="J268" t="n">
         <v>24.76617902356116</v>
@@ -12549,7 +12549,7 @@
         <v>11.52430369357045</v>
       </c>
       <c r="I269" t="n">
-        <v>100.2608299133607</v>
+        <v>0.1002608299133607</v>
       </c>
       <c r="J269" t="n">
         <v>42.85248014879993</v>
@@ -12594,7 +12594,7 @@
         <v>10.45386411308709</v>
       </c>
       <c r="I270" t="n">
-        <v>76.75786593707251</v>
+        <v>0.0767578659370725</v>
       </c>
       <c r="J270" t="n">
         <v>32.80707858866746</v>
@@ -12639,7 +12639,7 @@
         <v>11.40021979024168</v>
       </c>
       <c r="I271" t="n">
-        <v>53.56680346557228</v>
+        <v>0.05356680346557228</v>
       </c>
       <c r="J271" t="n">
         <v>21.85430562675232</v>
@@ -12684,7 +12684,7 @@
         <v>9.776879160966711</v>
       </c>
       <c r="I272" t="n">
-        <v>78.67852257181943</v>
+        <v>0.07867852257181943</v>
       </c>
       <c r="J272" t="n">
         <v>35.30938573954823</v>
@@ -12729,7 +12729,7 @@
         <v>9.358698586411309</v>
       </c>
       <c r="I273" t="n">
-        <v>103.8951208390333</v>
+        <v>0.1038951208390333</v>
       </c>
       <c r="J273" t="n">
         <v>51.80678112298679</v>
@@ -12774,7 +12774,7 @@
         <v>10.46655540355677</v>
       </c>
       <c r="I274" t="n">
-        <v>68.50250797993615</v>
+        <v>0.06850250797993616</v>
       </c>
       <c r="J274" t="n">
         <v>26.73268604095069</v>
@@ -12819,7 +12819,7 @@
         <v>9.585010487916097</v>
       </c>
       <c r="I275" t="n">
-        <v>97.33789329685362</v>
+        <v>0.09733789329685362</v>
       </c>
       <c r="J275" t="n">
         <v>43.68334723566114</v>
@@ -12864,7 +12864,7 @@
         <v>9.135079799361604</v>
       </c>
       <c r="I276" t="n">
-        <v>75.60510715914273</v>
+        <v>0.07560510715914273</v>
       </c>
       <c r="J276" t="n">
         <v>35.71589144360016</v>
@@ -12909,7 +12909,7 @@
         <v>10.8110560875513</v>
       </c>
       <c r="I277" t="n">
-        <v>89.81121751025992</v>
+        <v>0.08981121751025992</v>
       </c>
       <c r="J277" t="n">
         <v>36.6413836405495</v>
@@ -12954,7 +12954,7 @@
         <v>9.805634290925672</v>
       </c>
       <c r="I278" t="n">
-        <v>62.99589603283174</v>
+        <v>0.06299589603283173</v>
       </c>
       <c r="J278" t="n">
         <v>28.27132895131961</v>
@@ -12999,7 +12999,7 @@
         <v>9.554931144550844</v>
       </c>
       <c r="I279" t="n">
-        <v>81.19744642042863</v>
+        <v>0.08119744642042864</v>
       </c>
       <c r="J279" t="n">
         <v>33.12711783006401</v>
@@ -13044,7 +13044,7 @@
         <v>9.896764249886001</v>
       </c>
       <c r="I280" t="n">
-        <v>72.0328317373461</v>
+        <v>0.07203283173734611</v>
       </c>
       <c r="J280" t="n">
         <v>29.38811760459353</v>
@@ -13089,7 +13089,7 @@
         <v>10.68466210670315</v>
       </c>
       <c r="I281" t="n">
-        <v>102.1112631098951</v>
+        <v>0.1021112631098951</v>
       </c>
       <c r="J281" t="n">
         <v>45.82554246883098</v>
@@ -13134,7 +13134,7 @@
         <v>9.326373917008665</v>
       </c>
       <c r="I282" t="n">
-        <v>63.09074327405381</v>
+        <v>0.0630907432740538</v>
       </c>
       <c r="J282" t="n">
         <v>25.73990412954745</v>
@@ -13179,7 +13179,7 @@
         <v>9.681947104423164</v>
       </c>
       <c r="I283" t="n">
-        <v>82.41130870953032</v>
+        <v>0.08241130870953033</v>
       </c>
       <c r="J283" t="n">
         <v>35.2234164983823</v>
@@ -13224,7 +13224,7 @@
         <v>9.703589603283174</v>
       </c>
       <c r="I284" t="n">
-        <v>62.99498404012768</v>
+        <v>0.06299498404012768</v>
       </c>
       <c r="J284" t="n">
         <v>29.75886280714632</v>
@@ -13269,7 +13269,7 @@
         <v>9.056966712266302</v>
       </c>
       <c r="I285" t="n">
-        <v>73.55038759689923</v>
+        <v>0.07355038759689923</v>
       </c>
       <c r="J285" t="n">
         <v>33.00797882397428</v>
@@ -13314,7 +13314,7 @@
         <v>10.82730688554492</v>
       </c>
       <c r="I286" t="n">
-        <v>81.59233926128591</v>
+        <v>0.08159233926128591</v>
       </c>
       <c r="J286" t="n">
         <v>31.84091288245304</v>
@@ -13359,7 +13359,7 @@
         <v>8.920872777017783</v>
       </c>
       <c r="I287" t="n">
-        <v>62.87551299589603</v>
+        <v>0.06287551299589603</v>
       </c>
       <c r="J287" t="n">
         <v>31.35255932586685</v>
@@ -13404,7 +13404,7 @@
         <v>10.52135978112175</v>
       </c>
       <c r="I288" t="n">
-        <v>70.02553579571364</v>
+        <v>0.07002553579571363</v>
       </c>
       <c r="J288" t="n">
         <v>28.56917646654392</v>
@@ -13449,7 +13449,7 @@
         <v>9.549318741450069</v>
       </c>
       <c r="I289" t="n">
-        <v>65.20930232558139</v>
+        <v>0.06520930232558139</v>
       </c>
       <c r="J289" t="n">
         <v>29.26466250709019</v>
@@ -13494,7 +13494,7 @@
         <v>10.54025353397173</v>
       </c>
       <c r="I290" t="n">
-        <v>76.79799361605107</v>
+        <v>0.07679799361605108</v>
       </c>
       <c r="J290" t="n">
         <v>32.82422955947362</v>
@@ -13539,7 +13539,7 @@
         <v>10.09886092111263</v>
       </c>
       <c r="I291" t="n">
-        <v>88.64295485636114</v>
+        <v>0.08864295485636114</v>
       </c>
       <c r="J291" t="n">
         <v>36.1647532008214</v>
@@ -13584,7 +13584,7 @@
         <v>10.4951682626539</v>
       </c>
       <c r="I292" t="n">
-        <v>68.13497492020063</v>
+        <v>0.06813497492020064</v>
       </c>
       <c r="J292" t="n">
         <v>29.12156883929597</v>
@@ -13629,7 +13629,7 @@
         <v>9.921394436844505</v>
       </c>
       <c r="I293" t="n">
-        <v>65.04605563155495</v>
+        <v>0.06504605563155495</v>
       </c>
       <c r="J293" t="n">
         <v>26.53763688737497</v>
@@ -13674,7 +13674,7 @@
         <v>10.48791518467852</v>
       </c>
       <c r="I294" t="n">
-        <v>89.08709530323758</v>
+        <v>0.08908709530323758</v>
       </c>
       <c r="J294" t="n">
         <v>38.07671436886345</v>
@@ -13719,7 +13719,7 @@
         <v>9.728095759233927</v>
       </c>
       <c r="I295" t="n">
-        <v>87.00683994528043</v>
+        <v>0.08700683994528044</v>
       </c>
       <c r="J295" t="n">
         <v>39.0469720730039</v>
@@ -13764,7 +13764,7 @@
         <v>11.44105335157319</v>
       </c>
       <c r="I296" t="n">
-        <v>66.39398084815322</v>
+        <v>0.06639398084815322</v>
       </c>
       <c r="J296" t="n">
         <v>27.08756646576539</v>
@@ -13809,7 +13809,7 @@
         <v>10.15921568627451</v>
       </c>
       <c r="I297" t="n">
-        <v>68.64113087095303</v>
+        <v>0.06864113087095303</v>
       </c>
       <c r="J297" t="n">
         <v>30.80480019574478</v>
@@ -13854,7 +13854,7 @@
         <v>7.721208700440529</v>
       </c>
       <c r="I298" t="n">
-        <v>70.72136563876651</v>
+        <v>0.07072136563876652</v>
       </c>
       <c r="J298" t="n">
         <v>28.8530626996298</v>
@@ -13899,7 +13899,7 @@
         <v>9.970739262114536</v>
       </c>
       <c r="I299" t="n">
-        <v>50.36343612334802</v>
+        <v>0.05036343612334802</v>
       </c>
       <c r="J299" t="n">
         <v>25.11347492329549</v>
@@ -13944,7 +13944,7 @@
         <v>10.76737197136564</v>
       </c>
       <c r="I300" t="n">
-        <v>38.06305066079295</v>
+        <v>0.03806305066079296</v>
       </c>
       <c r="J300" t="n">
         <v>16.26852804084995</v>
@@ -13989,7 +13989,7 @@
         <v>7.98519686123348</v>
       </c>
       <c r="I301" t="n">
-        <v>48.20209251101321</v>
+        <v>0.04820209251101321</v>
       </c>
       <c r="J301" t="n">
         <v>20.60205580029369</v>
@@ -14034,7 +14034,7 @@
         <v>10.9421957599119</v>
       </c>
       <c r="I302" t="n">
-        <v>42.93777533039648</v>
+        <v>0.04293777533039647</v>
       </c>
       <c r="J302" t="n">
         <v>18.35203405526818</v>
@@ -14079,7 +14079,7 @@
         <v>8.452497246696035</v>
       </c>
       <c r="I303" t="n">
-        <v>72.01541850220265</v>
+        <v>0.07201541850220264</v>
       </c>
       <c r="J303" t="n">
         <v>32.31911464489094</v>
@@ -14124,7 +14124,7 @@
         <v>11.39731552863436</v>
       </c>
       <c r="I304" t="n">
-        <v>45.99256607929515</v>
+        <v>0.04599256607929515</v>
       </c>
       <c r="J304" t="n">
         <v>18.7641511276947</v>
@@ -14169,7 +14169,7 @@
         <v>9.99065390969163</v>
       </c>
       <c r="I305" t="n">
-        <v>83.68392070484582</v>
+        <v>0.08368392070484582</v>
       </c>
       <c r="J305" t="n">
         <v>35.76734357651947</v>
@@ -14214,7 +14214,7 @@
         <v>7.758832599118943</v>
       </c>
       <c r="I306" t="n">
-        <v>67.4284140969163</v>
+        <v>0.0674284140969163</v>
       </c>
       <c r="J306" t="n">
         <v>30.26055657032341</v>
@@ -14259,7 +14259,7 @@
         <v>12.7163670154185</v>
       </c>
       <c r="I307" t="n">
-        <v>85.06883259911895</v>
+        <v>0.08506883259911895</v>
       </c>
       <c r="J307" t="n">
         <v>33.19759320941227</v>
@@ -14304,7 +14304,7 @@
         <v>11.84683094713657</v>
       </c>
       <c r="I308" t="n">
-        <v>60.30974669603524</v>
+        <v>0.06030974669603524</v>
       </c>
       <c r="J308" t="n">
         <v>25.77698813489079</v>
@@ -14349,7 +14349,7 @@
         <v>7.892110407488987</v>
       </c>
       <c r="I309" t="n">
-        <v>77.29074889867842</v>
+        <v>0.07729074889867842</v>
       </c>
       <c r="J309" t="n">
         <v>34.68657999355324</v>
@@ -14394,7 +14394,7 @@
         <v>12.34840446035242</v>
       </c>
       <c r="I310" t="n">
-        <v>82.31552863436123</v>
+        <v>0.08231552863436124</v>
       </c>
       <c r="J310" t="n">
         <v>33.58327554040458</v>
@@ -14439,7 +14439,7 @@
         <v>9.944123072687225</v>
       </c>
       <c r="I311" t="n">
-        <v>107.6569383259912</v>
+        <v>0.1076569383259912</v>
       </c>
       <c r="J311" t="n">
         <v>53.68259255279777</v>
@@ -14484,7 +14484,7 @@
         <v>11.97828744493392</v>
       </c>
       <c r="I312" t="n">
-        <v>134.3323237885463</v>
+        <v>0.1343323237885463</v>
       </c>
       <c r="J312" t="n">
         <v>57.41497695027296</v>
@@ -14529,7 +14529,7 @@
         <v>10.84285104625551</v>
       </c>
       <c r="I313" t="n">
-        <v>81.02285242290749</v>
+        <v>0.08102285242290748</v>
       </c>
       <c r="J313" t="n">
         <v>34.62997641304293</v>
@@ -14574,7 +14574,7 @@
         <v>11.05621283039648</v>
       </c>
       <c r="I314" t="n">
-        <v>77.50275330396475</v>
+        <v>0.07750275330396476</v>
       </c>
       <c r="J314" t="n">
         <v>33.12545088949945</v>
@@ -14619,7 +14619,7 @@
         <v>10.83769823788546</v>
       </c>
       <c r="I315" t="n">
-        <v>121.8515969162996</v>
+        <v>0.1218515969162996</v>
       </c>
       <c r="J315" t="n">
         <v>57.56275695147399</v>
@@ -14664,7 +14664,7 @@
         <v>10.38704157488987</v>
       </c>
       <c r="I316" t="n">
-        <v>104.4837555066079</v>
+        <v>0.1044837555066079</v>
       </c>
       <c r="J316" t="n">
         <v>40.77414849038358</v>
@@ -14709,7 +14709,7 @@
         <v>11.5224531938326</v>
       </c>
       <c r="I317" t="n">
-        <v>127.15859030837</v>
+        <v>0.12715859030837</v>
       </c>
       <c r="J317" t="n">
         <v>57.06629418717095</v>
@@ -14754,7 +14754,7 @@
         <v>10.55918639867841</v>
       </c>
       <c r="I318" t="n">
-        <v>96.92455947136564</v>
+        <v>0.09692455947136563</v>
       </c>
       <c r="J318" t="n">
         <v>41.4265248379356</v>
@@ -14799,7 +14799,7 @@
         <v>10.51988023127753</v>
       </c>
       <c r="I319" t="n">
-        <v>140.8163546255507</v>
+        <v>0.1408163546255507</v>
       </c>
       <c r="J319" t="n">
         <v>57.45057483614483</v>
@@ -14844,7 +14844,7 @@
         <v>11.41657626651982</v>
       </c>
       <c r="I320" t="n">
-        <v>45</v>
+        <v>0.045</v>
       </c>
       <c r="J320" t="n">
         <v>19.23344947735191</v>
@@ -14889,7 +14889,7 @@
         <v>10.70306029735683</v>
       </c>
       <c r="I321" t="n">
-        <v>99.05148678414096</v>
+        <v>0.09905148678414097</v>
       </c>
       <c r="J321" t="n">
         <v>42.33559481598591</v>
@@ -14934,7 +14934,7 @@
         <v>3.257315528634361</v>
       </c>
       <c r="I322" t="n">
-        <v>87.75468061674009</v>
+        <v>0.08775468061674009</v>
       </c>
       <c r="J322" t="n">
         <v>37.50722702318275</v>
@@ -14979,7 +14979,7 @@
         <v>6.087939151982379</v>
       </c>
       <c r="I323" t="n">
-        <v>39.88573788546255</v>
+        <v>0.03988573788546255</v>
       </c>
       <c r="J323" t="n">
         <v>17.89994090469539</v>
@@ -15024,7 +15024,7 @@
         <v>4.849191905286343</v>
       </c>
       <c r="I324" t="n">
-        <v>38.83672907488987</v>
+        <v>0.03883672907488987</v>
       </c>
       <c r="J324" t="n">
         <v>15.84469656270451</v>
@@ -15069,7 +15069,7 @@
         <v>4.367801486784141</v>
       </c>
       <c r="I325" t="n">
-        <v>34.49476872246696</v>
+        <v>0.03449476872246696</v>
       </c>
       <c r="J325" t="n">
         <v>14.7434086990335</v>
@@ -15114,7 +15114,7 @@
         <v>5.961378028634361</v>
       </c>
       <c r="I326" t="n">
-        <v>71.93006607929516</v>
+        <v>0.07193006607929515</v>
       </c>
       <c r="J326" t="n">
         <v>35.86756682544799</v>
@@ -15159,7 +15159,7 @@
         <v>6.042148953744493</v>
       </c>
       <c r="I327" t="n">
-        <v>33.36866740088106</v>
+        <v>0.03336866740088106</v>
       </c>
       <c r="J327" t="n">
         <v>13.61382439415103</v>
@@ -15204,7 +15204,7 @@
         <v>3.057703744493392</v>
       </c>
       <c r="I328" t="n">
-        <v>42.19988986784141</v>
+        <v>0.04219988986784141</v>
       </c>
       <c r="J328" t="n">
         <v>17.21680650927454</v>
@@ -15249,7 +15249,7 @@
         <v>6.313170429515419</v>
       </c>
       <c r="I329" t="n">
-        <v>68.72935022026432</v>
+        <v>0.06872935022026432</v>
       </c>
       <c r="J329" t="n">
         <v>30.84439131836252</v>
@@ -15294,7 +15294,7 @@
         <v>3.086971365638767</v>
       </c>
       <c r="I330" t="n">
-        <v>84.11481277533039</v>
+        <v>0.08411481277533039</v>
       </c>
       <c r="J330" t="n">
         <v>34.3173515535716</v>
@@ -15339,7 +15339,7 @@
         <v>4.564953193832599</v>
       </c>
       <c r="I331" t="n">
-        <v>64.27450440528635</v>
+        <v>0.06427450440528634</v>
       </c>
       <c r="J331" t="n">
         <v>26.22285767311017</v>
@@ -15384,7 +15384,7 @@
         <v>5.688243392070484</v>
       </c>
       <c r="I332" t="n">
-        <v>37.90198237885463</v>
+        <v>0.03790198237885462</v>
       </c>
       <c r="J332" t="n">
         <v>17.00967014075427</v>
@@ -15429,7 +15429,7 @@
         <v>6.167840033039648</v>
       </c>
       <c r="I333" t="n">
-        <v>78.11811674008811</v>
+        <v>0.07811811674008812</v>
       </c>
       <c r="J333" t="n">
         <v>31.87080594274105</v>
@@ -15474,7 +15474,7 @@
         <v>5.327773953744493</v>
       </c>
       <c r="I334" t="n">
-        <v>59.36811674008811</v>
+        <v>0.05936811674008811</v>
       </c>
       <c r="J334" t="n">
         <v>26.64325239067368</v>
@@ -15519,7 +15519,7 @@
         <v>5.358404460352422</v>
       </c>
       <c r="I335" t="n">
-        <v>59.13959251101321</v>
+        <v>0.05913959251101322</v>
       </c>
       <c r="J335" t="n">
         <v>29.48966130630469</v>
@@ -15564,7 +15564,7 @@
         <v>5.148953744493392</v>
       </c>
       <c r="I336" t="n">
-        <v>62.31965859030837</v>
+        <v>0.06231965859030837</v>
       </c>
       <c r="J336" t="n">
         <v>24.31986676694961</v>
@@ -15609,7 +15609,7 @@
         <v>4.922443557268722</v>
       </c>
       <c r="I337" t="n">
-        <v>43.46503303964758</v>
+        <v>0.04346503303964758</v>
       </c>
       <c r="J337" t="n">
         <v>18.57738926665541</v>
@@ -15654,7 +15654,7 @@
         <v>5.596335352422908</v>
       </c>
       <c r="I338" t="n">
-        <v>59.8375550660793</v>
+        <v>0.0598375550660793</v>
       </c>
       <c r="J338" t="n">
         <v>29.83769683511813</v>
@@ -15699,7 +15699,7 @@
         <v>4.341251376651982</v>
       </c>
       <c r="I339" t="n">
-        <v>51.43171806167401</v>
+        <v>0.05143171806167401</v>
       </c>
       <c r="J339" t="n">
         <v>20.98322865487365</v>
@@ -15744,7 +15744,7 @@
         <v>4.482729900881057</v>
       </c>
       <c r="I340" t="n">
-        <v>57.38573788546255</v>
+        <v>0.05738573788546256</v>
       </c>
       <c r="J340" t="n">
         <v>24.52723756312453</v>
@@ -15789,7 +15789,7 @@
         <v>4.926942455947136</v>
       </c>
       <c r="I341" t="n">
-        <v>44.59388766519824</v>
+        <v>0.04459388766519824</v>
       </c>
       <c r="J341" t="n">
         <v>19.05987300905105</v>
@@ -15834,7 +15834,7 @@
         <v>5.491573513215859</v>
       </c>
       <c r="I342" t="n">
-        <v>64.58700440528635</v>
+        <v>0.06458700440528635</v>
       </c>
       <c r="J342" t="n">
         <v>26.35035212987292</v>
@@ -15879,7 +15879,7 @@
         <v>5.423254405286343</v>
       </c>
       <c r="I343" t="n">
-        <v>59.17125550660793</v>
+        <v>0.05917125550660793</v>
       </c>
       <c r="J343" t="n">
         <v>25.29038562884055</v>
@@ -15924,7 +15924,7 @@
         <v>5.148582048458151</v>
       </c>
       <c r="I344" t="n">
-        <v>51.77863436123348</v>
+        <v>0.05177863436123348</v>
       </c>
       <c r="J344" t="n">
         <v>22.13070551095693</v>
@@ -15969,7 +15969,7 @@
         <v>5.364609030837004</v>
       </c>
       <c r="I345" t="n">
-        <v>49.60627753303964</v>
+        <v>0.04960627753303964</v>
       </c>
       <c r="J345" t="n">
         <v>20.23848129951063</v>
@@ -16014,7 +16014,7 @@
         <v>5.657935022026432</v>
       </c>
       <c r="I346" t="n">
-        <v>73.72246696035242</v>
+        <v>0.07372246696035242</v>
       </c>
       <c r="J346" t="n">
         <v>33.08520468464597</v>
@@ -16059,7 +16059,7 @@
         <v>6.22647577092511</v>
       </c>
       <c r="I347" t="n">
-        <v>75.15556167400881</v>
+        <v>0.0751555616740088</v>
       </c>
       <c r="J347" t="n">
         <v>37.47594403256808</v>
@@ -16104,7 +16104,7 @@
         <v>5.281054515418503</v>
       </c>
       <c r="I348" t="n">
-        <v>97.31552863436123</v>
+        <v>0.09731552863436123</v>
       </c>
       <c r="J348" t="n">
         <v>37.97679166218975</v>
@@ -16149,7 +16149,7 @@
         <v>3.819285517621145</v>
       </c>
       <c r="I349" t="n">
-        <v>89.43557268722466</v>
+        <v>0.08943557268722467</v>
       </c>
       <c r="J349" t="n">
         <v>40.13693993768131</v>
@@ -16194,7 +16194,7 @@
         <v>4.846350495594714</v>
       </c>
       <c r="I350" t="n">
-        <v>95.47769823788546</v>
+        <v>0.09547769823788546</v>
       </c>
       <c r="J350" t="n">
         <v>45.10371367335282</v>
@@ -16239,7 +16239,7 @@
         <v>4.454257984581497</v>
       </c>
       <c r="I351" t="n">
-        <v>76.42896475770925</v>
+        <v>0.07642896475770924</v>
       </c>
       <c r="J351" t="n">
         <v>31.18166189671508</v>
@@ -16284,7 +16284,7 @@
         <v>5.169878854625551</v>
       </c>
       <c r="I352" t="n">
-        <v>96.50605726872247</v>
+        <v>0.09650605726872247</v>
       </c>
       <c r="J352" t="n">
         <v>43.31003545718276</v>
@@ -16329,7 +16329,7 @@
         <v>4.362706497797357</v>
       </c>
       <c r="I353" t="n">
-        <v>82.32654185022027</v>
+        <v>0.08232654185022026</v>
       </c>
       <c r="J353" t="n">
         <v>33.58776873711869</v>
@@ -16374,7 +16374,7 @@
         <v>5.358649504405287</v>
       </c>
       <c r="I354" t="n">
-        <v>53.05479074889868</v>
+        <v>0.05305479074889868</v>
       </c>
       <c r="J354" t="n">
         <v>21.64541352061498</v>
@@ -16419,7 +16419,7 @@
         <v>4.642498623348017</v>
       </c>
       <c r="I355" t="n">
-        <v>93.30809471365639</v>
+        <v>0.09330809471365638</v>
       </c>
       <c r="J355" t="n">
         <v>41.87485226173848</v>
@@ -16464,7 +16464,7 @@
         <v>3.756994768722467</v>
       </c>
       <c r="I356" t="n">
-        <v>66.95071585903084</v>
+        <v>0.06695071585903084</v>
       </c>
       <c r="J356" t="n">
         <v>27.31470447463786</v>
@@ -16509,7 +16509,7 @@
         <v>4.442338931718062</v>
       </c>
       <c r="I357" t="n">
-        <v>72.18612334801762</v>
+        <v>0.07218612334801762</v>
       </c>
       <c r="J357" t="n">
         <v>30.85307014177756</v>
@@ -16554,7 +16554,7 @@
         <v>5.477321035242291</v>
       </c>
       <c r="I358" t="n">
-        <v>75.35655286343612</v>
+        <v>0.07535655286343612</v>
       </c>
       <c r="J358" t="n">
         <v>35.598474266681</v>
@@ -16599,7 +16599,7 @@
         <v>5.301946585903083</v>
       </c>
       <c r="I359" t="n">
-        <v>42.62527533039648</v>
+        <v>0.04262527533039648</v>
       </c>
       <c r="J359" t="n">
         <v>19.12939185559257</v>
@@ -16644,7 +16644,7 @@
         <v>5.183360407488987</v>
       </c>
       <c r="I360" t="n">
-        <v>61.25688325991189</v>
+        <v>0.0612568832599119</v>
       </c>
       <c r="J360" t="n">
         <v>23.90512517459976</v>
@@ -16689,7 +16689,7 @@
         <v>6.199428689427313</v>
       </c>
       <c r="I361" t="n">
-        <v>62.90198237885463</v>
+        <v>0.06290198237885462</v>
       </c>
       <c r="J361" t="n">
         <v>31.36575815097358</v>
@@ -16734,7 +16734,7 @@
         <v>5.40100082599119</v>
       </c>
       <c r="I362" t="n">
-        <v>66.14124449339207</v>
+        <v>0.06614124449339207</v>
       </c>
       <c r="J362" t="n">
         <v>26.98445451615109</v>
@@ -16779,7 +16779,7 @@
         <v>4.774348843612335</v>
       </c>
       <c r="I363" t="n">
-        <v>85.17208149779735</v>
+        <v>0.08517208149779737</v>
       </c>
       <c r="J363" t="n">
         <v>38.22356828193832</v>
@@ -16824,7 +16824,7 @@
         <v>5.300100495594713</v>
       </c>
       <c r="I364" t="n">
-        <v>66.30368942731278</v>
+        <v>0.06630368942731278</v>
       </c>
       <c r="J364" t="n">
         <v>28.33885912805006</v>
@@ -16869,7 +16869,7 @@
         <v>4.1431015969163</v>
       </c>
       <c r="I365" t="n">
-        <v>55.35517621145375</v>
+        <v>0.05535517621145375</v>
       </c>
       <c r="J365" t="n">
         <v>22.58392998427381</v>
@@ -16914,7 +16914,7 @@
         <v>5.104486508810572</v>
       </c>
       <c r="I366" t="n">
-        <v>102.6803414096916</v>
+        <v>0.1026803414096916</v>
       </c>
       <c r="J366" t="n">
         <v>43.88660352934555</v>
@@ -16959,7 +16959,7 @@
         <v>5.716521200440528</v>
       </c>
       <c r="I367" t="n">
-        <v>71.1137114537445</v>
+        <v>0.0711137114537445</v>
       </c>
       <c r="J367" t="n">
         <v>29.01313283256982</v>
@@ -17004,7 +17004,7 @@
         <v>4.290686949339207</v>
       </c>
       <c r="I368" t="n">
-        <v>70.8397577092511</v>
+        <v>0.07083975770925111</v>
       </c>
       <c r="J368" t="n">
         <v>30.2776200197496</v>
@@ -17049,7 +17049,7 @@
         <v>5.043971640969163</v>
       </c>
       <c r="I369" t="n">
-        <v>68.31360132158591</v>
+        <v>0.06831360132158591</v>
       </c>
       <c r="J369" t="n">
         <v>30.65781132480928</v>
@@ -17094,7 +17094,7 @@
         <v>11.67774091409692</v>
       </c>
       <c r="I370" t="n">
-        <v>82.32929515418502</v>
+        <v>0.08232929515418502</v>
       </c>
       <c r="J370" t="n">
         <v>33.58889203629721</v>
@@ -17139,7 +17139,7 @@
         <v>12.3485861784141</v>
       </c>
       <c r="I371" t="n">
-        <v>80.36205947136564</v>
+        <v>0.08036205947136564</v>
       </c>
       <c r="J371" t="n">
         <v>36.06492425056409</v>
@@ -17184,7 +17184,7 @@
         <v>9.543306878663342</v>
       </c>
       <c r="I372" t="n">
-        <v>105.7411574479553</v>
+        <v>0.1057411574479553</v>
       </c>
       <c r="J372" t="n">
         <v>43.14051656413253</v>
@@ -17229,7 +17229,7 @@
         <v>8.742736643535673</v>
       </c>
       <c r="I373" t="n">
-        <v>108.5008421478138</v>
+        <v>0.1085008421478138</v>
       </c>
       <c r="J373" t="n">
         <v>54.10340096259549</v>
@@ -17274,7 +17274,7 @@
         <v>9.858659165936805</v>
       </c>
       <c r="I374" t="n">
-        <v>92.11884389948123</v>
+        <v>0.09211884389948125</v>
       </c>
       <c r="J374" t="n">
         <v>39.37251400117201</v>
@@ -17319,7 +17319,7 @@
         <v>10.08026760088931</v>
       </c>
       <c r="I375" t="n">
-        <v>108.8533315367513</v>
+        <v>0.1088533315367513</v>
       </c>
       <c r="J375" t="n">
         <v>46.52500116785655</v>
@@ -17364,7 +17364,7 @@
         <v>10.12912793909587</v>
       </c>
       <c r="I376" t="n">
-        <v>107.1253789665162</v>
+        <v>0.1071253789665162</v>
       </c>
       <c r="J376" t="n">
         <v>45.78645697988149</v>
@@ -17409,7 +17409,7 @@
         <v>8.514023445395136</v>
       </c>
       <c r="I377" t="n">
-        <v>101.1574479552651</v>
+        <v>0.1011574479552651</v>
       </c>
       <c r="J377" t="n">
         <v>45.39748883846044</v>
@@ -17454,7 +17454,7 @@
         <v>9.212863302566866</v>
       </c>
       <c r="I378" t="n">
-        <v>94.29522333760022</v>
+        <v>0.09429522333760021</v>
       </c>
       <c r="J378" t="n">
         <v>38.47077847919832</v>
@@ -17499,7 +17499,7 @@
         <v>8.869227649397022</v>
       </c>
       <c r="I379" t="n">
-        <v>94.72397763255407</v>
+        <v>0.09472397763255407</v>
       </c>
       <c r="J379" t="n">
         <v>40.4859741797676</v>
@@ -17544,7 +17544,7 @@
         <v>8.348471737519368</v>
       </c>
       <c r="I380" t="n">
-        <v>96.91234925554133</v>
+        <v>0.09691234925554133</v>
       </c>
       <c r="J380" t="n">
         <v>43.49237137321855</v>
@@ -17589,7 +17589,7 @@
         <v>8.67237418311662</v>
       </c>
       <c r="I381" t="n">
-        <v>105.8672775045476</v>
+        <v>0.1058672775045476</v>
       </c>
       <c r="J381" t="n">
         <v>41.3140595139698</v>
@@ -17634,7 +17634,7 @@
         <v>8.708375800040423</v>
       </c>
       <c r="I382" t="n">
-        <v>94.76008893080913</v>
+        <v>0.09476008893080913</v>
       </c>
       <c r="J382" t="n">
         <v>40.50140850933538</v>
@@ -17679,7 +17679,7 @@
         <v>8.347233443373982</v>
       </c>
       <c r="I383" t="n">
-        <v>95.97049114060501</v>
+        <v>0.09597049114060499</v>
       </c>
       <c r="J383" t="n">
         <v>43.06968382895444</v>
@@ -17724,7 +17724,7 @@
         <v>9.687194098228121</v>
       </c>
       <c r="I384" t="n">
-        <v>93.21781311055716</v>
+        <v>0.09321781311055716</v>
       </c>
       <c r="J384" t="n">
         <v>38.03121421805437</v>
@@ -17769,7 +17769,7 @@
         <v>8.959428417435829</v>
       </c>
       <c r="I385" t="n">
-        <v>114.4658087987604</v>
+        <v>0.1144658087987604</v>
       </c>
       <c r="J385" t="n">
         <v>57.07780167743064</v>
@@ -17814,7 +17814,7 @@
         <v>9.170489254193896</v>
       </c>
       <c r="I386" t="n">
-        <v>106.0087583372634</v>
+        <v>0.1060087583372634</v>
       </c>
       <c r="J386" t="n">
         <v>45.30920216970141</v>
@@ -17859,7 +17859,7 @@
         <v>9.188507040355724</v>
       </c>
       <c r="I387" t="n">
-        <v>105.3289766219767</v>
+        <v>0.1053289766219767</v>
       </c>
       <c r="J387" t="n">
         <v>45.018656674666</v>
@@ -17904,7 +17904,7 @@
         <v>10.14578360169777</v>
       </c>
       <c r="I388" t="n">
-        <v>113.9552651081318</v>
+        <v>0.1139552651081318</v>
       </c>
       <c r="J388" t="n">
         <v>48.70561853634437</v>
@@ -17949,7 +17949,7 @@
         <v>10.00646297918211</v>
       </c>
       <c r="I389" t="n">
-        <v>109.4478205214579</v>
+        <v>0.1094478205214579</v>
       </c>
       <c r="J389" t="n">
         <v>51.70320661347435</v>
@@ -17994,7 +17994,7 @@
         <v>9.942462709694805</v>
       </c>
       <c r="I390" t="n">
-        <v>114.0614431044937</v>
+        <v>0.1140614431044937</v>
       </c>
       <c r="J390" t="n">
         <v>44.51178267492437</v>
@@ -18039,7 +18039,7 @@
         <v>9.505985986660379</v>
       </c>
       <c r="I391" t="n">
-        <v>112.1174964629792</v>
+        <v>0.1121174964629792</v>
       </c>
       <c r="J391" t="n">
         <v>50.31614475411748</v>
@@ -18084,7 +18084,7 @@
         <v>9.248624132587752</v>
       </c>
       <c r="I392" t="n">
-        <v>97.80421747625144</v>
+        <v>0.09780421747625143</v>
       </c>
       <c r="J392" t="n">
         <v>41.80249945558714</v>
@@ -18129,7 +18129,7 @@
         <v>9.820688944283502</v>
       </c>
       <c r="I393" t="n">
-        <v>102.7367782793236</v>
+        <v>0.1027367782793236</v>
       </c>
       <c r="J393" t="n">
         <v>41.91478315608767</v>
@@ -18174,7 +18174,7 @@
         <v>9.190451660715489</v>
       </c>
       <c r="I394" t="n">
-        <v>109.4276089739271</v>
+        <v>0.1094276089739271</v>
       </c>
       <c r="J394" t="n">
         <v>46.77045308060996</v>
@@ -18219,7 +18219,7 @@
         <v>10.08183911608165</v>
       </c>
       <c r="I395" t="n">
-        <v>102.5529879404433</v>
+        <v>0.1025529879404433</v>
       </c>
       <c r="J395" t="n">
         <v>43.83217138453326</v>
@@ -18264,7 +18264,7 @@
         <v>8.266907633227785</v>
       </c>
       <c r="I396" t="n">
-        <v>79.25634979451593</v>
+        <v>0.07925634979451594</v>
       </c>
       <c r="J396" t="n">
         <v>33.87495554515895</v>
@@ -18309,7 +18309,7 @@
         <v>8.264408812234723</v>
       </c>
       <c r="I397" t="n">
-        <v>54.81115677423701</v>
+        <v>0.05481115677423701</v>
       </c>
       <c r="J397" t="n">
         <v>24.59817767429173</v>
@@ -18354,7 +18354,7 @@
         <v>7.736722764939702</v>
       </c>
       <c r="I398" t="n">
-        <v>68.95641042915852</v>
+        <v>0.06895641042915852</v>
       </c>
       <c r="J398" t="n">
         <v>28.13299228151923</v>
@@ -18399,7 +18399,7 @@
         <v>8.115195041433672</v>
       </c>
       <c r="I399" t="n">
-        <v>64.34130566597049</v>
+        <v>0.06434130566597049</v>
       </c>
       <c r="J399" t="n">
         <v>27.50011670740667</v>
@@ -18444,7 +18444,7 @@
         <v>8.25451162163983</v>
       </c>
       <c r="I400" t="n">
-        <v>82.17233712861281</v>
+        <v>0.08217233712861281</v>
       </c>
       <c r="J400" t="n">
         <v>40.97482393405083</v>
@@ -18489,7 +18489,7 @@
         <v>8.552842956275686</v>
       </c>
       <c r="I401" t="n">
-        <v>60.60082193626625</v>
+        <v>0.06060082193626625</v>
       </c>
       <c r="J401" t="n">
         <v>24.7240603908492</v>
@@ -18534,7 +18534,7 @@
         <v>7.716303307956612</v>
       </c>
       <c r="I402" t="n">
-        <v>71.56895506299266</v>
+        <v>0.07156895506299266</v>
       </c>
       <c r="J402" t="n">
         <v>29.1988641498684</v>
@@ -18579,7 +18579,7 @@
         <v>8.374042174762515</v>
       </c>
       <c r="I403" t="n">
-        <v>73.64724112376204</v>
+        <v>0.07364724112376203</v>
       </c>
       <c r="J403" t="n">
         <v>33.0514447970054</v>
@@ -18624,7 +18624,7 @@
         <v>8.853025399178064</v>
       </c>
       <c r="I404" t="n">
-        <v>95.90837431786026</v>
+        <v>0.09590837431786027</v>
       </c>
       <c r="J404" t="n">
         <v>39.12891546449288</v>
@@ -18669,7 +18669,7 @@
         <v>8.181617058546115</v>
       </c>
       <c r="I405" t="n">
-        <v>68.34534797547666</v>
+        <v>0.06834534797547666</v>
       </c>
       <c r="J405" t="n">
         <v>27.88368963966232</v>
@@ -18714,7 +18714,7 @@
         <v>8.142760358418109</v>
       </c>
       <c r="I406" t="n">
-        <v>68.41231556962879</v>
+        <v>0.06841231556962879</v>
       </c>
       <c r="J406" t="n">
         <v>30.70211235319926</v>
@@ -18759,7 +18759,7 @@
         <v>7.831197871050326</v>
       </c>
       <c r="I407" t="n">
-        <v>72.4054436434683</v>
+        <v>0.07240544364346829</v>
       </c>
       <c r="J407" t="n">
         <v>29.54013665276756</v>
@@ -18804,7 +18804,7 @@
         <v>8.579586067506568</v>
       </c>
       <c r="I408" t="n">
-        <v>47.97655460486425</v>
+        <v>0.04797655460486425</v>
       </c>
       <c r="J408" t="n">
         <v>21.53094157876835</v>
@@ -18849,7 +18849,7 @@
         <v>9.388738664690427</v>
       </c>
       <c r="I409" t="n">
-        <v>63.8304924880415</v>
+        <v>0.0638304924880415</v>
       </c>
       <c r="J409" t="n">
         <v>31.82875506178764</v>
@@ -18894,7 +18894,7 @@
         <v>7.027145321026747</v>
       </c>
       <c r="I410" t="n">
-        <v>52.87610321363606</v>
+        <v>0.05287610321363605</v>
       </c>
       <c r="J410" t="n">
         <v>20.63457686385797</v>
@@ -18939,7 +18939,7 @@
         <v>7.809260257360372</v>
       </c>
       <c r="I411" t="n">
-        <v>68.31745603988412</v>
+        <v>0.06831745603988412</v>
       </c>
       <c r="J411" t="n">
         <v>29.19956309254049</v>
@@ -18984,7 +18984,7 @@
         <v>8.402784881762448</v>
       </c>
       <c r="I412" t="n">
-        <v>48.62790540995756</v>
+        <v>0.04862790540995756</v>
       </c>
       <c r="J412" t="n">
         <v>24.24806123423358</v>
@@ -19029,7 +19029,7 @@
         <v>8.853482449639561</v>
       </c>
       <c r="I413" t="n">
-        <v>49.37034292258977</v>
+        <v>0.04937034292258977</v>
       </c>
       <c r="J413" t="n">
         <v>20.14222416353995</v>
@@ -19074,7 +19074,7 @@
         <v>9.337452536549216</v>
       </c>
       <c r="I414" t="n">
-        <v>57.32116149026477</v>
+        <v>0.05732116149026478</v>
       </c>
       <c r="J414" t="n">
         <v>24.49963696680306</v>
@@ -19119,7 +19119,7 @@
         <v>7.575976150373913</v>
       </c>
       <c r="I415" t="n">
-        <v>62.27352960991713</v>
+        <v>0.06227352960991713</v>
       </c>
       <c r="J415" t="n">
         <v>26.61632856730488</v>
@@ -19164,7 +19164,7 @@
         <v>8.972273529609918</v>
       </c>
       <c r="I416" t="n">
-        <v>59.22576298591929</v>
+        <v>0.05922576298591928</v>
       </c>
       <c r="J416" t="n">
         <v>24.16306073039723</v>
@@ -19209,7 +19209,7 @@
         <v>8.077063801118372</v>
       </c>
       <c r="I417" t="n">
-        <v>70.86330256686654</v>
+        <v>0.07086330256686653</v>
       </c>
       <c r="J417" t="n">
         <v>30.28768332706955</v>
@@ -19254,7 +19254,7 @@
         <v>9.066292528464597</v>
       </c>
       <c r="I418" t="n">
-        <v>46.99656403691976</v>
+        <v>0.04699656403691976</v>
       </c>
       <c r="J418" t="n">
         <v>20.0868008891829</v>
@@ -19299,7 +19299,7 @@
         <v>8.123107458061039</v>
       </c>
       <c r="I419" t="n">
-        <v>59.61800175166745</v>
+        <v>0.05961800175166745</v>
       </c>
       <c r="J419" t="n">
         <v>24.32308718915036</v>
@@ -19344,7 +19344,7 @@
         <v>8.172783130094993</v>
       </c>
       <c r="I420" t="n">
-        <v>65.41575153270902</v>
+        <v>0.06541575153270902</v>
       </c>
       <c r="J420" t="n">
         <v>29.35731288297185</v>
@@ -19389,7 +19389,7 @@
         <v>6.75000646769521</v>
       </c>
       <c r="I421" t="n">
-        <v>55.13871858788654</v>
+        <v>0.05513871858788654</v>
       </c>
       <c r="J421" t="n">
         <v>27.49464558311958</v>
@@ -19434,7 +19434,7 @@
         <v>7.151591726739878</v>
       </c>
       <c r="I422" t="n">
-        <v>45.24745671360237</v>
+        <v>0.04524745671360237</v>
       </c>
       <c r="J422" t="n">
         <v>17.65754408335702</v>
@@ -19479,7 +19479,7 @@
         <v>7.460041366300612</v>
       </c>
       <c r="I423" t="n">
-        <v>53.07970086909654</v>
+        <v>0.05307970086909655</v>
       </c>
       <c r="J423" t="n">
         <v>23.82113404857016</v>
@@ -19524,7 +19524,7 @@
         <v>7.78321956477801</v>
       </c>
       <c r="I424" t="n">
-        <v>48.40827326012262</v>
+        <v>0.04840827326012261</v>
       </c>
       <c r="J424" t="n">
         <v>22.86809314470491</v>
@@ -19569,7 +19569,7 @@
         <v>7.675934918816951</v>
       </c>
       <c r="I425" t="n">
-        <v>54.4030182577646</v>
+        <v>0.05440301825776461</v>
       </c>
       <c r="J425" t="n">
         <v>22.19546642888844</v>
@@ -19614,7 +19614,7 @@
         <v>6.752676278380381</v>
       </c>
       <c r="I426" t="n">
-        <v>47.15434885131038</v>
+        <v>0.04715434885131038</v>
       </c>
       <c r="J426" t="n">
         <v>21.16195167961246</v>
@@ -19659,7 +19659,7 @@
         <v>7.056688001077949</v>
       </c>
       <c r="I427" t="n">
-        <v>60.04689079027151</v>
+        <v>0.06004689079027151</v>
       </c>
       <c r="J427" t="n">
         <v>24.49806630911299</v>
@@ -19704,7 +19704,7 @@
         <v>6.498112241460621</v>
       </c>
       <c r="I428" t="n">
-        <v>52.49558714545577</v>
+        <v>0.05249558714545577</v>
       </c>
       <c r="J428" t="n">
         <v>21.41726836976466</v>
@@ -19749,7 +19749,7 @@
         <v>7.384144849423972</v>
       </c>
       <c r="I429" t="n">
-        <v>61.06204945091962</v>
+        <v>0.06106204945091963</v>
       </c>
       <c r="J429" t="n">
         <v>27.4034563389493</v>
@@ -19794,7 +19794,7 @@
         <v>7.086683824024793</v>
       </c>
       <c r="I430" t="n">
-        <v>56.86424577241797</v>
+        <v>0.05686424577241798</v>
       </c>
       <c r="J430" t="n">
         <v>23.19960359672929</v>
@@ -19839,7 +19839,7 @@
         <v>7.845020278919357</v>
       </c>
       <c r="I431" t="n">
-        <v>46.60176514181769</v>
+        <v>0.04660176514181769</v>
       </c>
       <c r="J431" t="n">
         <v>19.91805989801267</v>
@@ -19884,7 +19884,7 @@
         <v>11.46739756113993</v>
       </c>
       <c r="I432" t="n">
-        <v>121.5290709425318</v>
+        <v>0.1215290709425318</v>
       </c>
       <c r="J432" t="n">
         <v>57.41039551585586</v>
@@ -19929,7 +19929,7 @@
         <v>11.06765842484673</v>
       </c>
       <c r="I433" t="n">
-        <v>146.9702890251297</v>
+        <v>0.1469702890251297</v>
       </c>
       <c r="J433" t="n">
         <v>65.95739800152163</v>
@@ -19974,7 +19974,7 @@
         <v>11.01117725527185</v>
       </c>
       <c r="I434" t="n">
-        <v>50.56498012531159</v>
+        <v>0.05056498012531159</v>
       </c>
       <c r="J434" t="n">
         <v>19.73267517085331</v>
@@ -20019,7 +20019,7 @@
         <v>9.56898349390285</v>
       </c>
       <c r="I435" t="n">
-        <v>77.25944889847067</v>
+        <v>0.07725944889847067</v>
       </c>
       <c r="J435" t="n">
         <v>38.5250368491019</v>
@@ -20064,7 +20064,7 @@
         <v>9.646373239911069</v>
       </c>
       <c r="I436" t="n">
-        <v>59.27710031664758</v>
+        <v>0.05927710031664758</v>
       </c>
       <c r="J436" t="n">
         <v>24.18400545069436</v>
@@ -20109,7 +20109,7 @@
         <v>11.1126537761908</v>
       </c>
       <c r="I437" t="n">
-        <v>56.83837499157852</v>
+        <v>0.05683837499157852</v>
       </c>
       <c r="J437" t="n">
         <v>25.50795365475719</v>
@@ -20154,7 +20154,7 @@
         <v>10.51047254598127</v>
       </c>
       <c r="I438" t="n">
-        <v>170.9558714545577</v>
+        <v>0.1709558714545577</v>
       </c>
       <c r="J438" t="n">
         <v>73.06824703284232</v>
@@ -20199,7 +20199,7 @@
         <v>11.17037566529677</v>
       </c>
       <c r="I439" t="n">
-        <v>155.9532439533787</v>
+        <v>0.1559532439533787</v>
       </c>
       <c r="J439" t="n">
         <v>63.62615717831859</v>
@@ -20244,7 +20244,7 @@
         <v>10.59884538166139</v>
       </c>
       <c r="I440" t="n">
-        <v>146.5701003840194</v>
+        <v>0.1465701003840194</v>
       </c>
       <c r="J440" t="n">
         <v>62.64552490280969</v>
@@ -20289,7 +20289,7 @@
         <v>10.30214794852793</v>
       </c>
       <c r="I441" t="n">
-        <v>72.12248197803679</v>
+        <v>0.07212248197803678</v>
       </c>
       <c r="J441" t="n">
         <v>29.42469331254716</v>
@@ -20334,7 +20334,7 @@
         <v>11.01256120730311</v>
       </c>
       <c r="I442" t="n">
-        <v>129.2351950414337</v>
+        <v>0.1292351950414337</v>
       </c>
       <c r="J442" t="n">
         <v>55.23641321166968</v>
@@ -20379,7 +20379,7 @@
         <v>11.55385568955063</v>
       </c>
       <c r="I443" t="n">
-        <v>88.39668530620494</v>
+        <v>0.08839668530620494</v>
       </c>
       <c r="J443" t="n">
         <v>39.67070755205295</v>
@@ -20424,7 +20424,7 @@
         <v>5.141756509956404</v>
       </c>
       <c r="I444" t="n">
-        <v>34.14310121362083</v>
+        <v>0.03414310121362083</v>
       </c>
       <c r="J444" t="n">
         <v>13.92977965256371</v>
@@ -20469,7 +20469,7 @@
         <v>3.670426387416048</v>
       </c>
       <c r="I445" t="n">
-        <v>30.77736538234947</v>
+        <v>0.03077736538234947</v>
       </c>
       <c r="J445" t="n">
         <v>15.34697894404418</v>
@@ -20514,7 +20514,7 @@
         <v>3.314608077059031</v>
       </c>
       <c r="I446" t="n">
-        <v>50.81109343702133</v>
+        <v>0.05081109343702132</v>
       </c>
       <c r="J446" t="n">
         <v>21.71716885577683</v>
@@ -20559,7 +20559,7 @@
         <v>4.94307809002003</v>
       </c>
       <c r="I447" t="n">
-        <v>30.78487687050784</v>
+        <v>0.03078487687050784</v>
       </c>
       <c r="J447" t="n">
         <v>13.15776386567582</v>
@@ -20604,7 +20604,7 @@
         <v>1.996963738659126</v>
       </c>
       <c r="I448" t="n">
-        <v>25.14286555909037</v>
+        <v>0.02514286555909037</v>
       </c>
       <c r="J448" t="n">
         <v>10.74631187659147</v>
@@ -20649,7 +20649,7 @@
         <v>5.026266348533051</v>
       </c>
       <c r="I449" t="n">
-        <v>25.94630022387181</v>
+        <v>0.02594630022387181</v>
       </c>
       <c r="J449" t="n">
         <v>11.644193271201</v>
@@ -20694,7 +20694,7 @@
         <v>5.578677241663721</v>
       </c>
       <c r="I450" t="n">
-        <v>26.58786968304466</v>
+        <v>0.02658786968304466</v>
       </c>
       <c r="J450" t="n">
         <v>10.84737920549937</v>
@@ -20739,7 +20739,7 @@
         <v>4.714106574761399</v>
       </c>
       <c r="I451" t="n">
-        <v>41.64545775892542</v>
+        <v>0.04164545775892541</v>
       </c>
       <c r="J451" t="n">
         <v>17.79968461705523</v>
@@ -20784,7 +20784,7 @@
         <v>3.240611081654295</v>
       </c>
       <c r="I452" t="n">
-        <v>36.64869800871922</v>
+        <v>0.03664869800871922</v>
       </c>
       <c r="J452" t="n">
         <v>16.44722056976667</v>
@@ -20829,7 +20829,7 @@
         <v>2.308417137975728</v>
       </c>
       <c r="I453" t="n">
-        <v>29.03484741369153</v>
+        <v>0.02903484741369153</v>
       </c>
       <c r="J453" t="n">
         <v>11.3306721614406</v>
@@ -20874,7 +20874,7 @@
         <v>4.02343849416755</v>
       </c>
       <c r="I454" t="n">
-        <v>28.80788264404383</v>
+        <v>0.02880788264404383</v>
       </c>
       <c r="J454" t="n">
         <v>12.31277678630445</v>
@@ -20919,7 +20919,7 @@
         <v>5.4321338517733</v>
       </c>
       <c r="I455" t="n">
-        <v>31.68684458583716</v>
+        <v>0.03168684458583716</v>
       </c>
       <c r="J455" t="n">
         <v>14.22043757022936</v>
@@ -20964,7 +20964,7 @@
         <v>5.819416902321197</v>
       </c>
       <c r="I456" t="n">
-        <v>52.88146577117945</v>
+        <v>0.05288146577117945</v>
       </c>
       <c r="J456" t="n">
         <v>21.57470000420625</v>
@@ -21009,7 +21009,7 @@
         <v>5.881705991516437</v>
       </c>
       <c r="I457" t="n">
-        <v>28.31639566395664</v>
+        <v>0.02831639566395664</v>
       </c>
       <c r="J457" t="n">
         <v>14.11982873216266</v>
@@ -21054,7 +21054,7 @@
         <v>5.06214533993166</v>
       </c>
       <c r="I458" t="n">
-        <v>83.99905738187816</v>
+        <v>0.08399905738187817</v>
       </c>
       <c r="J458" t="n">
         <v>35.90203613998973</v>
@@ -21099,7 +21099,7 @@
         <v>5.33967406032756</v>
       </c>
       <c r="I459" t="n">
-        <v>76.2592788971368</v>
+        <v>0.0762592788971368</v>
       </c>
       <c r="J459" t="n">
         <v>32.59397750771932</v>
@@ -21144,7 +21144,7 @@
         <v>5.828320666902321</v>
       </c>
       <c r="I460" t="n">
-        <v>87.61885825379993</v>
+        <v>0.08761885825379993</v>
       </c>
       <c r="J460" t="n">
         <v>37.449175188616</v>
@@ -21189,7 +21189,7 @@
         <v>5.570912866737364</v>
       </c>
       <c r="I461" t="n">
-        <v>45.34390833038765</v>
+        <v>0.04534390833038765</v>
       </c>
       <c r="J461" t="n">
         <v>21.42048557841163</v>
@@ -21234,7 +21234,7 @@
         <v>5.637059473312124</v>
       </c>
       <c r="I462" t="n">
-        <v>33.18339813832921</v>
+        <v>0.03318339813832921</v>
       </c>
       <c r="J462" t="n">
         <v>12.94961878568945</v>
@@ -21279,7 +21279,7 @@
         <v>5.821493607870861</v>
       </c>
       <c r="I463" t="n">
-        <v>71.12348297396018</v>
+        <v>0.07112348297396018</v>
       </c>
       <c r="J463" t="n">
         <v>31.91883138343578</v>
@@ -21324,7 +21324,7 @@
         <v>5.335796954165194</v>
       </c>
       <c r="I464" t="n">
-        <v>36.13806409803229</v>
+        <v>0.03613806409803229</v>
       </c>
       <c r="J464" t="n">
         <v>15.44576955641798</v>
@@ -21369,7 +21369,7 @@
         <v>5.325996671379757</v>
       </c>
       <c r="I465" t="n">
-        <v>79.238688582538</v>
+        <v>0.07923868858253799</v>
       </c>
       <c r="J465" t="n">
         <v>32.32797937735474</v>
@@ -21414,7 +21414,7 @@
         <v>5.093383115352893</v>
       </c>
       <c r="I466" t="n">
-        <v>32.09084482149169</v>
+        <v>0.03209084482149169</v>
       </c>
       <c r="J466" t="n">
         <v>13.7159476124378</v>
@@ -21459,7 +21459,7 @@
         <v>5.534571108754566</v>
       </c>
       <c r="I467" t="n">
-        <v>84.47890891952397</v>
+        <v>0.08447890891952398</v>
       </c>
       <c r="J467" t="n">
         <v>36.10712948012174</v>
@@ -21504,7 +21504,7 @@
         <v>5.40272239896312</v>
       </c>
       <c r="I468" t="n">
-        <v>29.1494344291269</v>
+        <v>0.0291494344291269</v>
       </c>
       <c r="J468" t="n">
         <v>12.45875943079988</v>
@@ -21549,7 +21549,7 @@
         <v>5.582210144927537</v>
       </c>
       <c r="I469" t="n">
-        <v>25.83465889006716</v>
+        <v>0.02583465889006716</v>
       </c>
       <c r="J469" t="n">
         <v>11.59409081895697</v>
@@ -21594,7 +21594,7 @@
         <v>4.831456639566396</v>
       </c>
       <c r="I470" t="n">
-        <v>27.89972899728997</v>
+        <v>0.02789972899728997</v>
       </c>
       <c r="J470" t="n">
         <v>11.38259453547972</v>
@@ -21639,7 +21639,7 @@
         <v>4.741122893837635</v>
       </c>
       <c r="I471" t="n">
-        <v>17.25285731118181</v>
+        <v>0.01725285731118181</v>
       </c>
       <c r="J471" t="n">
         <v>7.374043542990597</v>
@@ -21684,7 +21684,7 @@
         <v>4.751904088606103</v>
       </c>
       <c r="I472" t="n">
-        <v>30.57676446329681</v>
+        <v>0.03057676446329681</v>
       </c>
       <c r="J472" t="n">
         <v>15.24695030148133</v>
@@ -21729,7 +21729,7 @@
         <v>4.870553788146577</v>
       </c>
       <c r="I473" t="n">
-        <v>30.79533404029693</v>
+        <v>0.03079533404029693</v>
       </c>
       <c r="J473" t="n">
         <v>12.5639500297442</v>
@@ -21774,7 +21774,7 @@
         <v>4.905572640509014</v>
       </c>
       <c r="I474" t="n">
-        <v>29.61720867208672</v>
+        <v>0.02961720867208672</v>
       </c>
       <c r="J474" t="n">
         <v>12.0832957775254</v>
@@ -21819,7 +21819,7 @@
         <v>5.559700424178154</v>
       </c>
       <c r="I475" t="n">
-        <v>19.27271120537293</v>
+        <v>0.01927271120537292</v>
       </c>
       <c r="J475" t="n">
         <v>8.6492167360698</v>
@@ -21864,7 +21864,7 @@
         <v>5.07417182160952</v>
       </c>
       <c r="I476" t="n">
-        <v>19.17108518911276</v>
+        <v>0.01917108518911276</v>
       </c>
       <c r="J476" t="n">
         <v>7.821462693562633</v>
@@ -21909,7 +21909,7 @@
         <v>5.32811152350654</v>
       </c>
       <c r="I477" t="n">
-        <v>27.20587368917167</v>
+        <v>0.02720587368917168</v>
       </c>
       <c r="J477" t="n">
         <v>11.09951387762215</v>
@@ -21954,7 +21954,7 @@
         <v>5.445235949098621</v>
       </c>
       <c r="I478" t="n">
-        <v>25.49944032049016</v>
+        <v>0.02549944032049016</v>
       </c>
       <c r="J478" t="n">
         <v>11.44365126578095</v>
@@ -21999,7 +21999,7 @@
         <v>5.278700954400848</v>
       </c>
       <c r="I479" t="n">
-        <v>19.78408153646754</v>
+        <v>0.01978408153646754</v>
       </c>
       <c r="J479" t="n">
         <v>8.071554329733983</v>
@@ -22044,7 +22044,7 @@
         <v>5.802459938729823</v>
       </c>
       <c r="I480" t="n">
-        <v>29.79424413809355</v>
+        <v>0.02979424413809355</v>
       </c>
       <c r="J480" t="n">
         <v>13.37107541807125</v>
@@ -22089,7 +22089,7 @@
         <v>5.223405502533287</v>
       </c>
       <c r="I481" t="n">
-        <v>24.21173559561683</v>
+        <v>0.02421173559561683</v>
       </c>
       <c r="J481" t="n">
         <v>12.07306056800405</v>
@@ -22134,7 +22134,7 @@
         <v>5.866754595263344</v>
       </c>
       <c r="I482" t="n">
-        <v>19.60174384352539</v>
+        <v>0.01960174384352539</v>
       </c>
       <c r="J482" t="n">
         <v>7.649461012107468</v>
@@ -22179,7 +22179,7 @@
         <v>5.376729409685401</v>
       </c>
       <c r="I483" t="n">
-        <v>27.30587958053493</v>
+        <v>0.02730587958053494</v>
       </c>
       <c r="J483" t="n">
         <v>11.67080567437498</v>
@@ -22224,7 +22224,7 @@
         <v>5.155380140214445</v>
       </c>
       <c r="I484" t="n">
-        <v>28.12919759632379</v>
+        <v>0.02812919759632379</v>
       </c>
       <c r="J484" t="n">
         <v>14.02648335426444</v>
@@ -22269,7 +22269,7 @@
         <v>5.630426534700129</v>
       </c>
       <c r="I485" t="n">
-        <v>17.33533639684223</v>
+        <v>0.01733533639684223</v>
       </c>
       <c r="J485" t="n">
         <v>7.072509749487737</v>
@@ -22314,7 +22314,7 @@
         <v>5.46949673029339</v>
       </c>
       <c r="I486" t="n">
-        <v>23.84956403911865</v>
+        <v>0.02384956403911865</v>
       </c>
       <c r="J486" t="n">
         <v>10.19354188896128</v>
@@ -22359,7 +22359,7 @@
         <v>5.333787115588547</v>
       </c>
       <c r="I487" t="n">
-        <v>20.84953458230234</v>
+        <v>0.02084953458230234</v>
       </c>
       <c r="J487" t="n">
         <v>8.911299333666971</v>
@@ -22404,7 +22404,7 @@
         <v>5.524481707317073</v>
       </c>
       <c r="I488" t="n">
-        <v>27.72843761046306</v>
+        <v>0.02772843761046306</v>
       </c>
       <c r="J488" t="n">
         <v>11.31271068808249</v>
@@ -22449,7 +22449,7 @@
         <v>5.459229556969483</v>
       </c>
       <c r="I489" t="n">
-        <v>24.45681630729351</v>
+        <v>0.02445681630729351</v>
       </c>
       <c r="J489" t="n">
         <v>10.45308757384902</v>
@@ -22494,7 +22494,7 @@
         <v>5.545175120772948</v>
       </c>
       <c r="I490" t="n">
-        <v>23.60772357723577</v>
+        <v>0.02360772357723577</v>
       </c>
       <c r="J490" t="n">
         <v>10.09017685995675</v>
@@ -22539,7 +22539,7 @@
         <v>5.493619359019678</v>
       </c>
       <c r="I491" t="n">
-        <v>26.4992046659597</v>
+        <v>0.0264992046659597</v>
       </c>
       <c r="J491" t="n">
         <v>10.81120545130063</v>
@@ -22584,7 +22584,7 @@
         <v>5.492647873217862</v>
       </c>
       <c r="I492" t="n">
-        <v>39.39171674325439</v>
+        <v>0.03939171674325439</v>
       </c>
       <c r="J492" t="n">
         <v>17.67823385550928</v>
@@ -22629,7 +22629,7 @@
         <v>5.194258277365382</v>
       </c>
       <c r="I493" t="n">
-        <v>50.07099092730058</v>
+        <v>0.05007099092730057</v>
       </c>
       <c r="J493" t="n">
         <v>24.96764859247508</v>
@@ -22674,7 +22674,7 @@
         <v>5.003048485919641</v>
       </c>
       <c r="I494" t="n">
-        <v>33.40461882879698</v>
+        <v>0.03340461882879699</v>
       </c>
       <c r="J494" t="n">
         <v>13.03594881123785</v>
@@ -22719,7 +22719,7 @@
         <v>5.621323494756687</v>
       </c>
       <c r="I495" t="n">
-        <v>42.97234004948745</v>
+        <v>0.04297234004948745</v>
       </c>
       <c r="J495" t="n">
         <v>19.28514772952607</v>
@@ -22764,7 +22764,7 @@
         <v>5.04950630375869</v>
       </c>
       <c r="I496" t="n">
-        <v>32.62254035583834</v>
+        <v>0.03262254035583834</v>
       </c>
       <c r="J496" t="n">
         <v>15.41090481508152</v>
@@ -22809,7 +22809,7 @@
         <v>5.026472693531283</v>
       </c>
       <c r="I497" t="n">
-        <v>26.36812183339225</v>
+        <v>0.02636812183339225</v>
       </c>
       <c r="J497" t="n">
         <v>10.75772598080748</v>
@@ -22854,7 +22854,7 @@
         <v>4.980400465417698</v>
       </c>
       <c r="I498" t="n">
-        <v>45.71138211382114</v>
+        <v>0.04571138211382113</v>
       </c>
       <c r="J498" t="n">
         <v>20.51437636327583</v>
@@ -22899,7 +22899,7 @@
         <v>4.918547926240132</v>
       </c>
       <c r="I499" t="n">
-        <v>43.54851537645811</v>
+        <v>0.04354851537645811</v>
       </c>
       <c r="J499" t="n">
         <v>17.76702179438646</v>
@@ -22944,7 +22944,7 @@
         <v>5.565330210910805</v>
       </c>
       <c r="I500" t="n">
-        <v>34.26799811476376</v>
+        <v>0.03426799811476375</v>
       </c>
       <c r="J500" t="n">
         <v>13.98073537276392</v>
@@ -22989,7 +22989,7 @@
         <v>5.139888947802522</v>
       </c>
       <c r="I501" t="n">
-        <v>23.72142688818192</v>
+        <v>0.02372142688818192</v>
       </c>
       <c r="J501" t="n">
         <v>10.64571353030603</v>
@@ -23034,7 +23034,7 @@
         <v>5.153302403676211</v>
       </c>
       <c r="I502" t="n">
-        <v>41.95107222811359</v>
+        <v>0.04195107222811358</v>
       </c>
       <c r="J502" t="n">
         <v>17.11529332588226</v>
@@ -23079,7 +23079,7 @@
         <v>4.82578605514316</v>
       </c>
       <c r="I503" t="n">
-        <v>23.82702957464357</v>
+        <v>0.02382702957464357</v>
       </c>
       <c r="J503" t="n">
         <v>10.18391043376171</v>
@@ -23124,7 +23124,7 @@
         <v>6.035229615883115</v>
       </c>
       <c r="I504" t="n">
-        <v>68.83881230116648</v>
+        <v>0.06883881230116649</v>
       </c>
       <c r="J504" t="n">
         <v>32.51949027834308</v>
@@ -23169,7 +23169,7 @@
         <v>5.970236538234947</v>
       </c>
       <c r="I505" t="n">
-        <v>32.17744786143513</v>
+        <v>0.03217744786143514</v>
       </c>
       <c r="J505" t="n">
         <v>14.44061074757089</v>
@@ -23214,7 +23214,7 @@
         <v>5.240196035112525</v>
       </c>
       <c r="I506" t="n">
-        <v>76.28961941793331</v>
+        <v>0.07628961941793332</v>
       </c>
       <c r="J506" t="n">
         <v>29.77155879724226</v>
@@ -23259,7 +23259,7 @@
         <v>4.71908462943325</v>
       </c>
       <c r="I507" t="n">
-        <v>41.47563921291387</v>
+        <v>0.04147563921291387</v>
       </c>
       <c r="J507" t="n">
         <v>20.6816195533229</v>
@@ -23304,7 +23304,7 @@
         <v>5.415609166961235</v>
       </c>
       <c r="I508" t="n">
-        <v>25.34626487569223</v>
+        <v>0.02534626487569224</v>
       </c>
       <c r="J508" t="n">
         <v>10.34082646813164</v>
@@ -23349,7 +23349,7 @@
         <v>5.683014610580889</v>
       </c>
       <c r="I509" t="n">
-        <v>46.57623424060328</v>
+        <v>0.04657623424060327</v>
       </c>
       <c r="J509" t="n">
         <v>20.9025051226122</v>
@@ -23394,7 +23394,7 @@
         <v>5.560906533521857</v>
       </c>
       <c r="I510" t="n">
-        <v>48.58695652173913</v>
+        <v>0.04858695652173913</v>
       </c>
       <c r="J510" t="n">
         <v>20.76655052264808</v>
@@ -23439,7 +23439,7 @@
         <v>6.035903735124307</v>
       </c>
       <c r="I511" t="n">
-        <v>39.61367385412984</v>
+        <v>0.03961367385412985</v>
       </c>
       <c r="J511" t="n">
         <v>16.16167625090885</v>
@@ -23484,7 +23484,7 @@
         <v>5.755460999175209</v>
       </c>
       <c r="I512" t="n">
-        <v>25.92671144102745</v>
+        <v>0.02592671144102745</v>
       </c>
       <c r="J512" t="n">
         <v>11.0813354358863</v>
@@ -23529,7 +23529,7 @@
         <v>5.140101773300342</v>
       </c>
       <c r="I513" t="n">
-        <v>27.22693531283139</v>
+        <v>0.02722693531283139</v>
       </c>
       <c r="J513" t="n">
         <v>11.10810664647666</v>
@@ -23574,7 +23574,7 @@
         <v>5.21914589961117</v>
       </c>
       <c r="I514" t="n">
-        <v>31.51555319901025</v>
+        <v>0.03151555319901025</v>
       </c>
       <c r="J514" t="n">
         <v>13.47006222675467</v>
@@ -23619,7 +23619,7 @@
         <v>5.402389242370685</v>
       </c>
       <c r="I515" t="n">
-        <v>47.8618769883351</v>
+        <v>0.0478618769883351</v>
       </c>
       <c r="J515" t="n">
         <v>21.47947650208209</v>
@@ -23664,7 +23664,7 @@
         <v>11.95153256668597</v>
       </c>
       <c r="I516" t="n">
-        <v>78.64016637070661</v>
+        <v>0.0786401663707066</v>
       </c>
       <c r="J516" t="n">
         <v>32.08379293172953</v>
@@ -23709,7 +23709,7 @@
         <v>10.54250961474546</v>
       </c>
       <c r="I517" t="n">
-        <v>86.14868907100193</v>
+        <v>0.08614868907100193</v>
       </c>
       <c r="J517" t="n">
         <v>42.95761189448334</v>
@@ -23754,7 +23754,7 @@
         <v>11.08927317272356</v>
       </c>
       <c r="I518" t="n">
-        <v>78.34835291101255</v>
+        <v>0.07834835291101255</v>
       </c>
       <c r="J518" t="n">
         <v>33.48686860772662</v>
@@ -23799,7 +23799,7 @@
         <v>10.66553799842366</v>
       </c>
       <c r="I519" t="n">
-        <v>79.02836468610823</v>
+        <v>0.07902836468610823</v>
       </c>
       <c r="J519" t="n">
         <v>33.77751243262234</v>
@@ -23844,7 +23844,7 @@
         <v>11.38514590672985</v>
       </c>
       <c r="I520" t="n">
-        <v>83.26891849544664</v>
+        <v>0.08326891849544664</v>
       </c>
       <c r="J520" t="n">
         <v>35.58996748702017</v>
@@ -23889,7 +23889,7 @@
         <v>12.75559658902067</v>
       </c>
       <c r="I521" t="n">
-        <v>88.89674950383166</v>
+        <v>0.08889674950383167</v>
       </c>
       <c r="J521" t="n">
         <v>39.89512660659762</v>
@@ -23934,7 +23934,7 @@
         <v>12.99623282402879</v>
       </c>
       <c r="I522" t="n">
-        <v>80.85663821018545</v>
+        <v>0.08085663821018546</v>
       </c>
       <c r="J522" t="n">
         <v>32.98807412566325</v>
@@ -23979,7 +23979,7 @@
         <v>11.88578688976042</v>
       </c>
       <c r="I523" t="n">
-        <v>86.44392110685899</v>
+        <v>0.08644392110685899</v>
       </c>
       <c r="J523" t="n">
         <v>36.94699531628816</v>
@@ -24024,7 +24024,7 @@
         <v>12.18423922436305</v>
       </c>
       <c r="I524" t="n">
-        <v>85.28359938085788</v>
+        <v>0.08528359938085786</v>
       </c>
       <c r="J524" t="n">
         <v>38.27361533189719</v>
@@ -24069,7 +24069,7 @@
         <v>12.63234077506718</v>
       </c>
       <c r="I525" t="n">
-        <v>77.68875763244608</v>
+        <v>0.07768875763244609</v>
       </c>
       <c r="J525" t="n">
         <v>30.3175639541253</v>
@@ -24114,7 +24114,7 @@
         <v>11.95923822727834</v>
       </c>
       <c r="I526" t="n">
-        <v>75.93721215113905</v>
+        <v>0.07593721215113905</v>
       </c>
       <c r="J526" t="n">
         <v>32.45632296355304</v>
@@ -24159,7 +24159,7 @@
         <v>11.96039361106099</v>
       </c>
       <c r="I527" t="n">
-        <v>81.76132640755125</v>
+        <v>0.08176132640755127</v>
       </c>
       <c r="J527" t="n">
         <v>36.69288794875471</v>
@@ -24204,7 +24204,7 @@
         <v>11.37358874528759</v>
       </c>
       <c r="I528" t="n">
-        <v>86.72956213736978</v>
+        <v>0.08672956213736978</v>
       </c>
       <c r="J528" t="n">
         <v>35.38412291192027</v>
@@ -24249,7 +24249,7 @@
         <v>12.6617240069511</v>
       </c>
       <c r="I529" t="n">
-        <v>94.2029494715451</v>
+        <v>0.0942029494715451</v>
       </c>
       <c r="J529" t="n">
         <v>46.97382846277587</v>
@@ -24294,7 +24294,7 @@
         <v>10.54488590502056</v>
       </c>
       <c r="I530" t="n">
-        <v>110.1704540059065</v>
+        <v>0.1101704540059065</v>
       </c>
       <c r="J530" t="n">
         <v>47.08795246710059</v>
@@ -24339,7 +24339,7 @@
         <v>10.77669832014966</v>
       </c>
       <c r="I531" t="n">
-        <v>93.09086765362227</v>
+        <v>0.09309086765362228</v>
       </c>
       <c r="J531" t="n">
         <v>39.78796666263995</v>
@@ -24384,7 +24384,7 @@
         <v>11.31338049702299</v>
       </c>
       <c r="I532" t="n">
-        <v>105.0962424150341</v>
+        <v>0.1050962424150342</v>
       </c>
       <c r="J532" t="n">
         <v>44.91918374997974</v>
@@ -24429,7 +24429,7 @@
         <v>11.60145355959243</v>
       </c>
       <c r="I533" t="n">
-        <v>105.2992678549384</v>
+        <v>0.1052992678549384</v>
       </c>
       <c r="J533" t="n">
         <v>49.7434282036166</v>
@@ -24474,7 +24474,7 @@
         <v>12.66980723028858</v>
       </c>
       <c r="I534" t="n">
-        <v>93.97086613425509</v>
+        <v>0.09397086613425509</v>
       </c>
       <c r="J534" t="n">
         <v>36.67155751580686</v>
@@ -24519,7 +24519,7 @@
         <v>11.42961512530031</v>
       </c>
       <c r="I535" t="n">
-        <v>93.37546411919436</v>
+        <v>0.09337546411919435</v>
       </c>
       <c r="J535" t="n">
         <v>41.90508633641893</v>
@@ -24564,7 +24564,7 @@
         <v>10.64696800782474</v>
       </c>
       <c r="I536" t="n">
-        <v>101.2117902893445</v>
+        <v>0.1012117902893445</v>
       </c>
       <c r="J536" t="n">
         <v>43.25893011205432</v>
@@ -24609,7 +24609,7 @@
         <v>10.72289107086898</v>
       </c>
       <c r="I537" t="n">
-        <v>87.31062512463559</v>
+        <v>0.0873106251246356</v>
       </c>
       <c r="J537" t="n">
         <v>35.62118630362072</v>
@@ -24654,7 +24654,7 @@
         <v>10.66923414397903</v>
       </c>
       <c r="I538" t="n">
-        <v>101.1288898173911</v>
+        <v>0.1011288898173911</v>
       </c>
       <c r="J538" t="n">
         <v>43.22349762229955</v>
@@ -24699,7 +24699,7 @@
         <v>12.02853523507459</v>
       </c>
       <c r="I539" t="n">
-        <v>97.0914564084059</v>
+        <v>0.0970914564084059</v>
       </c>
       <c r="J539" t="n">
         <v>41.49785825585757</v>
@@ -24744,7 +24744,7 @@
         <v>12.74849858034129</v>
       </c>
       <c r="I540" t="n">
-        <v>78.18606550371771</v>
+        <v>0.07818606550371771</v>
       </c>
       <c r="J540" t="n">
         <v>33.4175053488596</v>
@@ -24789,7 +24789,7 @@
         <v>12.27483120780195</v>
       </c>
       <c r="I541" t="n">
-        <v>68.38462780252026</v>
+        <v>0.06838462780252025</v>
       </c>
       <c r="J541" t="n">
         <v>30.68968662357006</v>
@@ -24834,7 +24834,7 @@
         <v>10.17131805103175</v>
       </c>
       <c r="I542" t="n">
-        <v>97.71658104399518</v>
+        <v>0.09771658104399518</v>
       </c>
       <c r="J542" t="n">
         <v>39.8666317341355</v>
@@ -24879,7 +24879,7 @@
         <v>11.85244684588869</v>
       </c>
       <c r="I543" t="n">
-        <v>77.66207374628468</v>
+        <v>0.07766207374628467</v>
       </c>
       <c r="J543" t="n">
         <v>33.19354603790099</v>
@@ -24924,7 +24924,7 @@
         <v>11.58183254674428</v>
       </c>
       <c r="I544" t="n">
-        <v>68.78602562032913</v>
+        <v>0.06878602562032914</v>
       </c>
       <c r="J544" t="n">
         <v>34.29980681338905</v>
@@ -24969,7 +24969,7 @@
         <v>10.79140664913064</v>
       </c>
       <c r="I545" t="n">
-        <v>86.36709810363983</v>
+        <v>0.08636709810363984</v>
       </c>
       <c r="J545" t="n">
         <v>35.23624401567567</v>
@@ -25014,7 +25014,7 @@
         <v>10.23008584424587</v>
       </c>
       <c r="I546" t="n">
-        <v>79.22740178715566</v>
+        <v>0.07922740178715566</v>
       </c>
       <c r="J546" t="n">
         <v>32.32337456504798</v>
@@ -25059,7 +25059,7 @@
         <v>9.951094704055761</v>
       </c>
       <c r="I547" t="n">
-        <v>82.68700086414009</v>
+        <v>0.08268700086414009</v>
       </c>
       <c r="J547" t="n">
         <v>37.10831258293116</v>
@@ -25104,7 +25104,7 @@
         <v>11.91908809480851</v>
       </c>
       <c r="I548" t="n">
-        <v>70.07444899199483</v>
+        <v>0.07007444899199483</v>
       </c>
       <c r="J548" t="n">
         <v>28.58913218298681</v>
@@ -25149,7 +25149,7 @@
         <v>11.92800772978055</v>
       </c>
       <c r="I549" t="n">
-        <v>96.34088901972329</v>
+        <v>0.09634088901972329</v>
       </c>
       <c r="J549" t="n">
         <v>39.30537379075185</v>
@@ -25194,7 +25194,7 @@
         <v>12.72324669775039</v>
       </c>
       <c r="I550" t="n">
-        <v>81.59524058229748</v>
+        <v>0.08159524058229746</v>
       </c>
       <c r="J550" t="n">
         <v>36.61835187107984</v>
@@ -25239,7 +25239,7 @@
         <v>12.52392101189854</v>
       </c>
       <c r="I551" t="n">
-        <v>86.88947553344032</v>
+        <v>0.08688947553344031</v>
       </c>
       <c r="J551" t="n">
         <v>35.44936474091578</v>
@@ -25284,7 +25284,7 @@
         <v>10.84832537248236</v>
       </c>
       <c r="I552" t="n">
-        <v>67.25602286647612</v>
+        <v>0.06725602286647611</v>
       </c>
       <c r="J552" t="n">
         <v>30.18319074983318</v>
@@ -25329,7 +25329,7 @@
         <v>12.00593331877273</v>
       </c>
       <c r="I553" t="n">
-        <v>68.16156570788267</v>
+        <v>0.06816156570788268</v>
       </c>
       <c r="J553" t="n">
         <v>33.9884230088087</v>
@@ -25374,7 +25374,7 @@
         <v>11.19431794657525</v>
       </c>
       <c r="I554" t="n">
-        <v>71.25832090934126</v>
+        <v>0.07125832090934126</v>
       </c>
       <c r="J554" t="n">
         <v>27.80812523291366</v>
@@ -25419,7 +25419,7 @@
         <v>10.44480974674048</v>
       </c>
       <c r="I555" t="n">
-        <v>62.06918818312173</v>
+        <v>0.06206918818312173</v>
       </c>
       <c r="J555" t="n">
         <v>26.52899100045156</v>
@@ -25464,7 +25464,7 @@
         <v>10.04695680249176</v>
       </c>
       <c r="I556" t="n">
-        <v>72.11334479189418</v>
+        <v>0.07211334479189417</v>
       </c>
       <c r="J556" t="n">
         <v>35.95895783660848</v>
@@ -25509,7 +25509,7 @@
         <v>9.820109109555871</v>
       </c>
       <c r="I557" t="n">
-        <v>61.2335362321593</v>
+        <v>0.0612335362321593</v>
       </c>
       <c r="J557" t="n">
         <v>24.98219660026011</v>
@@ -25554,7 +25554,7 @@
         <v>11.85895752419117</v>
       </c>
       <c r="I558" t="n">
-        <v>67.08300492844729</v>
+        <v>0.06708300492844731</v>
       </c>
       <c r="J558" t="n">
         <v>28.67194635733868</v>
@@ -25599,7 +25599,7 @@
         <v>11.07972803327414</v>
       </c>
       <c r="I559" t="n">
-        <v>72.83523412498694</v>
+        <v>0.07283523412498695</v>
       </c>
       <c r="J559" t="n">
         <v>31.13050657142299</v>
@@ -25644,7 +25644,7 @@
         <v>10.40382282279431</v>
       </c>
       <c r="I560" t="n">
-        <v>68.90425137930052</v>
+        <v>0.06890425137930052</v>
       </c>
       <c r="J560" t="n">
         <v>28.11171231439312</v>
@@ -25689,7 +25689,7 @@
         <v>11.88426049550362</v>
       </c>
       <c r="I561" t="n">
-        <v>55.12112205266506</v>
+        <v>0.05512112205266507</v>
       </c>
       <c r="J561" t="n">
         <v>23.55931813633071</v>
@@ -25734,7 +25734,7 @@
         <v>10.40624127550875</v>
       </c>
       <c r="I562" t="n">
-        <v>62.41313492930195</v>
+        <v>0.06241313492930194</v>
       </c>
       <c r="J562" t="n">
         <v>26.67599727524171</v>
@@ -25779,7 +25779,7 @@
         <v>12.0163524741945</v>
       </c>
       <c r="I563" t="n">
-        <v>63.95044963772589</v>
+        <v>0.06395044963772589</v>
       </c>
       <c r="J563" t="n">
         <v>26.09064907614537</v>
@@ -25824,7 +25824,7 @@
         <v>10.09696572877396</v>
       </c>
       <c r="I564" t="n">
-        <v>85.13270722743977</v>
+        <v>0.08513270722743976</v>
       </c>
       <c r="J564" t="n">
         <v>38.20589787768029</v>
@@ -25869,7 +25869,7 @@
         <v>11.70608829422546</v>
       </c>
       <c r="I565" t="n">
-        <v>87.55410371580237</v>
+        <v>0.08755410371580237</v>
       </c>
       <c r="J565" t="n">
         <v>43.6584148609963</v>
@@ -25914,7 +25914,7 @@
         <v>13.01446466046892</v>
       </c>
       <c r="I566" t="n">
-        <v>81.46163123059246</v>
+        <v>0.08146163123059245</v>
       </c>
       <c r="J566" t="n">
         <v>31.78990487047511</v>
@@ -25959,7 +25959,7 @@
         <v>11.16846895268121</v>
       </c>
       <c r="I567" t="n">
-        <v>66.83164462001577</v>
+        <v>0.06683164462001577</v>
       </c>
       <c r="J567" t="n">
         <v>29.99273807337293</v>
@@ -26004,7 +26004,7 @@
         <v>10.63646671161461</v>
       </c>
       <c r="I568" t="n">
-        <v>69.35493367012639</v>
+        <v>0.06935493367012639</v>
       </c>
       <c r="J568" t="n">
         <v>32.76330627805714</v>
@@ -26049,7 +26049,7 @@
         <v>13.01039930868793</v>
       </c>
       <c r="I569" t="n">
-        <v>80.41991510535861</v>
+        <v>0.08041991510535862</v>
       </c>
       <c r="J569" t="n">
         <v>32.8098988456452</v>
@@ -26094,7 +26094,7 @@
         <v>12.59753947980666</v>
       </c>
       <c r="I570" t="n">
-        <v>87.17891498191004</v>
+        <v>0.08717891498191002</v>
       </c>
       <c r="J570" t="n">
         <v>39.12419599188157</v>
@@ -26139,7 +26139,7 @@
         <v>11.05428717938979</v>
       </c>
       <c r="I571" t="n">
-        <v>66.15495646063414</v>
+        <v>0.06615495646063414</v>
       </c>
       <c r="J571" t="n">
         <v>26.99004875555805</v>
@@ -26184,7 +26184,7 @@
         <v>10.55198134976782</v>
       </c>
       <c r="I572" t="n">
-        <v>65.83987769094172</v>
+        <v>0.06583987769094173</v>
       </c>
       <c r="J572" t="n">
         <v>26.86150220650394</v>
@@ -26229,7 +26229,7 @@
         <v>11.5184237515075</v>
       </c>
       <c r="I573" t="n">
-        <v>63.99384656290655</v>
+        <v>0.06399384656290655</v>
       </c>
       <c r="J573" t="n">
         <v>28.71918967701172</v>
@@ -26274,7 +26274,7 @@
         <v>13.05732695832186</v>
       </c>
       <c r="I574" t="n">
-        <v>65.43705546639825</v>
+        <v>0.06543705546639825</v>
       </c>
       <c r="J574" t="n">
         <v>26.69715788429551</v>
@@ -26319,7 +26319,7 @@
         <v>10.5451913927849</v>
       </c>
       <c r="I575" t="n">
-        <v>81.878317680686</v>
+        <v>0.081878317680686</v>
       </c>
       <c r="J575" t="n">
         <v>34.99561080893432</v>
@@ -26364,7 +26364,7 @@
         <v>6.926301860275195</v>
       </c>
       <c r="I576" t="n">
-        <v>60.88066320377563</v>
+        <v>0.06088066320377562</v>
       </c>
       <c r="J576" t="n">
         <v>28.76005655839465</v>
@@ -26409,7 +26409,7 @@
         <v>10.85523602419592</v>
       </c>
       <c r="I577" t="n">
-        <v>78.97423723019364</v>
+        <v>0.07897423723019363</v>
       </c>
       <c r="J577" t="n">
         <v>35.44209670818446</v>
@@ -26454,7 +26454,7 @@
         <v>7.235561168773206</v>
       </c>
       <c r="I578" t="n">
-        <v>89.63687124312723</v>
+        <v>0.08963687124312723</v>
       </c>
       <c r="J578" t="n">
         <v>34.98024243634234</v>
@@ -26499,7 +26499,7 @@
         <v>9.615561738535899</v>
       </c>
       <c r="I579" t="n">
-        <v>78.47484022904462</v>
+        <v>0.07847484022904461</v>
       </c>
       <c r="J579" t="n">
         <v>39.13108564266723</v>
@@ -26544,7 +26544,7 @@
         <v>10.92708480917698</v>
       </c>
       <c r="I580" t="n">
-        <v>68.8304671104485</v>
+        <v>0.0688304671104485</v>
       </c>
       <c r="J580" t="n">
         <v>28.08160964151335</v>
@@ -26589,7 +26589,7 @@
         <v>8.508768742818617</v>
       </c>
       <c r="I581" t="n">
-        <v>91.64386033217166</v>
+        <v>0.09164386033217164</v>
       </c>
       <c r="J581" t="n">
         <v>41.1279763441941</v>
@@ -26634,7 +26634,7 @@
         <v>10.62046093801931</v>
       </c>
       <c r="I582" t="n">
-        <v>70.40700048429829</v>
+        <v>0.07040700048429829</v>
       </c>
       <c r="J582" t="n">
         <v>30.09265525925873</v>
@@ -26679,7 +26679,7 @@
         <v>9.023956242225113</v>
       </c>
       <c r="I583" t="n">
-        <v>89.94568262318744</v>
+        <v>0.08994568262318745</v>
       </c>
       <c r="J583" t="n">
         <v>36.69624302143345</v>
@@ -26724,7 +26724,7 @@
         <v>9.288324043036075</v>
       </c>
       <c r="I584" t="n">
-        <v>69.25076205760301</v>
+        <v>0.06925076205760301</v>
       </c>
       <c r="J584" t="n">
         <v>29.59846740673392</v>
@@ -26769,7 +26769,7 @@
         <v>6.574298479683212</v>
       </c>
       <c r="I585" t="n">
-        <v>61.77927393240715</v>
+        <v>0.06177927393240715</v>
       </c>
       <c r="J585" t="n">
         <v>25.20484790146988</v>
@@ -26814,7 +26814,7 @@
         <v>8.878328506177178</v>
       </c>
       <c r="I586" t="n">
-        <v>89.59062550447739</v>
+        <v>0.08959062550447738</v>
       </c>
       <c r="J586" t="n">
         <v>38.29192820632715</v>
@@ -26859,7 +26859,7 @@
         <v>6.488178373707351</v>
       </c>
       <c r="I587" t="n">
-        <v>72.37040272726409</v>
+        <v>0.0723704027272641</v>
       </c>
       <c r="J587" t="n">
         <v>32.47842463857705</v>
@@ -26904,7 +26904,7 @@
         <v>6.5159361675862</v>
       </c>
       <c r="I588" t="n">
-        <v>74.91268386716932</v>
+        <v>0.07491268386716933</v>
       </c>
       <c r="J588" t="n">
         <v>30.56304618970988</v>
@@ -26949,7 +26949,7 @@
         <v>6.712782626036256</v>
       </c>
       <c r="I589" t="n">
-        <v>74.47634060413837</v>
+        <v>0.07447634060413838</v>
       </c>
       <c r="J589" t="n">
         <v>33.42352846624747</v>
